--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>RUN IN - 9 secs</t>
+    <t>RUN IN - 8 secs</t>
   </si>
   <si>
     <t>Passed Test Cases</t>
@@ -538,9 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,8 +553,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,14 +591,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,22 +614,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,19 +651,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,16 +668,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,181 +696,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,6 +917,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -935,8 +944,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,15 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -976,6 +976,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,26 +1009,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,130 +1035,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2400,7 +2400,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2592,7 +2592,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
   <si>
     <t>Validation Data</t>
   </si>
@@ -55,6 +55,12 @@
     <t>View Product Snapshot</t>
   </si>
   <si>
+    <t>Pass%Trend</t>
+  </si>
+  <si>
+    <t>Pass % Trend</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
@@ -103,37 +109,49 @@
     <t>createFalconPosts</t>
   </si>
   <si>
+    <t>Pass Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail Status</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Skip Status</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Steps - invalidLinkApiTest</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: This is to show how it handle the failed exception at org.testng.Assert.fail(Assert.java:94) at com.atmecs.falcon.automation.verifyresult.VerificationManager.verifyTrueAndStopTest(VerificationManager.java:337) at atmecs.rest.falcon.testscript.FalconGetList.invalidLinkApiTest(FalconGetList.java:183) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at atmecs.rest.falcon.runner.TestNGRunner.main(TestNGRunner.java:58) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Steps - invalidLinkApiTest</t>
-  </si>
-  <si>
-    <t>Error Message</t>
-  </si>
-  <si>
-    <t>java.lang.AssertionError: This is to show how it handle the failed exception at org.testng.Assert.fail(Assert.java:94) at com.atmecs.falcon.automation.verifyresult.VerificationManager.verifyTrueAndStopTest(VerificationManager.java:337) at atmecs.rest.falcon.testscript.FalconGetList.invalidLinkApiTest(FalconGetList.java:183) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at atmecs.rest.falcon.runner.TestNGRunner.main(TestNGRunner.java:58) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>WebServices</t>
@@ -482,6 +500,36 @@
   </si>
   <si>
     <t>deleteProjectApiTest</t>
+  </si>
+  <si>
+    <t>Color of total test cases</t>
+  </si>
+  <si>
+    <t>rgba(103, 58, 183, 1)</t>
+  </si>
+  <si>
+    <t>Color of pass test cases</t>
+  </si>
+  <si>
+    <t>rgba(0, 150, 136, 1)</t>
+  </si>
+  <si>
+    <t>Color of fail test cases</t>
+  </si>
+  <si>
+    <t>rgba(244, 67, 54, 1)</t>
+  </si>
+  <si>
+    <t>Color of skip test cases</t>
+  </si>
+  <si>
+    <t>rgba(33, 150, 243, 1)</t>
+  </si>
+  <si>
+    <t>Tooltip message</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
   </si>
 </sst>
 </file>
@@ -504,6 +552,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -515,14 +571,6 @@
       <color rgb="FF888888"/>
       <name val="Roboto"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -539,7 +587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,7 +602,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -562,7 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,58 +619,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,7 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,17 +641,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,7 +673,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,12 +744,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,169 +810,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,30 +989,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -982,11 +1006,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,174 +1046,185 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1503,23 +1551,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="39.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1553,6 +1601,14 @@
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1623,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1576,60 +1632,60 @@
     <col min="2" max="2" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1641,64 +1697,80 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1727,25 +1799,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1753,22 +1825,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1776,22 +1848,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1802,19 +1874,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1822,22 +1894,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1845,22 +1917,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1868,16 +1940,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1885,16 +1957,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1902,16 +1974,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1919,16 +1991,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:5">
@@ -1936,16 +2008,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:5">
@@ -1953,16 +2025,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1970,16 +2042,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:5">
@@ -1987,16 +2059,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2004,16 +2076,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2021,16 +2093,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2038,16 +2110,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2055,16 +2127,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2072,16 +2144,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2089,16 +2161,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2106,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2114,7 +2186,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2122,7 +2194,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2130,7 +2202,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2138,7 +2210,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2146,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2154,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2162,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2170,7 +2242,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2178,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2186,7 +2258,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2194,7 +2266,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2202,7 +2274,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2210,7 +2282,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2218,7 +2290,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2226,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2234,7 +2306,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2242,7 +2314,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2250,7 +2322,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2258,7 +2330,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2266,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2274,7 +2346,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2282,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2290,7 +2362,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2298,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2306,7 +2378,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2314,7 +2386,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2322,7 +2394,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2330,7 +2402,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2338,7 +2410,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2346,7 +2418,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2354,7 +2426,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2362,7 +2434,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2370,7 +2442,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2378,7 +2450,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2386,7 +2458,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2409,84 +2481,84 @@
     <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2509,11 +2581,11 @@
     <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2527,7 +2599,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2535,47 +2607,47 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2592,7 +2664,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2601,84 +2673,84 @@
     <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2702,44 +2774,44 @@
     <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2751,45 +2823,85 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="180">
   <si>
     <t>Validation Data</t>
   </si>
@@ -61,6 +61,24 @@
     <t>Pass % Trend</t>
   </si>
   <si>
+    <t>Number of products</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT, WebServices, FALCON, WebServicesDemo, FalconMobileDemo, ObjectExtractor, SampleFalconAPITest, Falcon, DotComUI_Mobile, MWB, MWB_iOS, JB_Native_App_iOS, Falcon2,Fal, MWB, FalconDemo41, CreditSightsMobile, CHS, CHS, HEATCLINIC RESULT, UI WEB TEST RESULT, HEAT CLINIC RESULT, DotComUITablet, HRIS, HRIS_Cloud, HRIS_Local, Falcon, CreditSights, BrowserstackDemo, FalconSampleProj, DotComUITablet, GreyHealthGroup, FluorCorporation, AndroidDemoApp, MWBooking, AutomationDemoClient, APIAutomationDemoClient, APIAutomationClient, FLUOR, Atmecs,CHS, Atmecs,Atmecs, demo, CHS,Atmecs, CHS, TestMobileWeb, TestFalcon_runSessionId, swathi_signup account, Pooja_USAUTOPARTS, USAutoParts, USAutoParts_MUJ, TestMobileWeb_CnameDemo, IOSDemoApp, Mobile_Demo, TestDemoApp, UI BrowserStack Test Result, dbTesting</t>
+  </si>
+  <si>
+    <t>Recent Execution time</t>
+  </si>
+  <si>
+    <t>23 minutes ago, 26 days ago, 34 days ago, 36 days ago, 41 days ago, 189 days ago, 202 days ago, 202 days ago, 205 days ago, 224 days ago, 229 days ago, 229 days ago, 231 days ago, 237 days ago, 238 days ago, 246 days ago, 252 days ago, 252 days ago, 260 days ago, 321 days ago, 336 days ago, 343 days ago, 358 days ago, 366 days ago, 366 days ago, 371 days ago, 387 days ago, 426 days ago, 432 days ago, 461 days ago, 512 days ago, 579 days ago, 588 days ago, 593 days ago, 595 days ago, 595 days ago, 595 days ago, 615 days ago, 621 days ago, 621 days ago, 650 days ago, 691 days ago, 691 days ago, 727 days ago, 734 days ago, 749 days ago, 749 days ago, 750 days ago, 754 days ago, 783 days ago, 786 days ago, 791 days ago, 800 days ago, 811 days ago, 825 days ago</t>
+  </si>
+  <si>
+    <t>Delete option</t>
+  </si>
+  <si>
+    <t>Delete Run</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>23/01/2020 10:29:26</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Services </t>
+  </si>
+  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -137,6 +161,12 @@
   </si>
   <si>
     <t>java.lang.AssertionError: This is to show how it handle the failed exception at org.testng.Assert.fail(Assert.java:94) at com.atmecs.falcon.automation.verifyresult.VerificationManager.verifyTrueAndStopTest(VerificationManager.java:337) at atmecs.rest.falcon.testscript.FalconGetList.invalidLinkApiTest(FalconGetList.java:183) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at atmecs.rest.falcon.runner.TestNGRunner.main(TestNGRunner.java:58) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748)</t>
+  </si>
+  <si>
+    <t>Dowload Message</t>
+  </si>
+  <si>
+    <t>Download</t>
   </si>
   <si>
     <t>id</t>
@@ -530,6 +560,15 @@
   </si>
   <si>
     <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Pass percent color</t>
+  </si>
+  <si>
+    <t>rgba(76, 175, 80, 1)</t>
+  </si>
+  <si>
+    <t>Fail percent color</t>
   </si>
 </sst>
 </file>
@@ -537,13 +576,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +612,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -593,6 +638,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -601,16 +654,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,16 +669,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +709,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,10 +745,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,46 +761,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -744,19 +789,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,162 +970,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,6 +1010,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -985,30 +1045,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1090,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1065,152 +1110,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,6 +1272,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -1551,13 +1599,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="39.2857142857143" customWidth="1"/>
@@ -1583,7 +1631,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1609,6 +1657,30 @@
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1620,13 +1692,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="27.4285714285714" customWidth="1"/>
@@ -1642,50 +1714,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1697,13 +1777,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
@@ -1719,58 +1799,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1799,25 +1887,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1825,22 +1913,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1848,22 +1936,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1874,19 +1962,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1894,22 +1982,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1917,22 +2005,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1940,16 +2028,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1957,16 +2045,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1974,16 +2062,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1991,16 +2079,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:5">
@@ -2008,16 +2096,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:5">
@@ -2025,16 +2113,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2042,16 +2130,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:5">
@@ -2059,16 +2147,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2076,16 +2164,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2093,16 +2181,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2110,16 +2198,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2127,16 +2215,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2144,16 +2232,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2161,16 +2249,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2178,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2186,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2194,7 +2282,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2202,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2210,7 +2298,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2218,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2226,7 +2314,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2234,7 +2322,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2242,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2250,7 +2338,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2258,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2266,7 +2354,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2274,7 +2362,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2282,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2290,7 +2378,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2298,7 +2386,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2306,7 +2394,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2314,7 +2402,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2322,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2330,7 +2418,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2338,7 +2426,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2346,7 +2434,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2354,7 +2442,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2362,7 +2450,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2370,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2378,7 +2466,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2386,7 +2474,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2394,7 +2482,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2402,7 +2490,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2410,7 +2498,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2418,7 +2506,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2426,7 +2514,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2434,7 +2522,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2442,7 +2530,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2450,7 +2538,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2458,7 +2546,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2491,74 +2579,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2687,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2607,47 +2695,47 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2683,74 +2771,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2784,34 +2872,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2823,13 +2911,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
@@ -2845,62 +2933,78 @@
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
   <si>
     <t>Validation Data</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Number of products</t>
   </si>
   <si>
-    <t>REST API TEST RESULT, WebServices, FALCON, WebServicesDemo, FalconMobileDemo, ObjectExtractor, SampleFalconAPITest, Falcon, DotComUI_Mobile, MWB, MWB_iOS, JB_Native_App_iOS, Falcon2,Fal, MWB, FalconDemo41, CreditSightsMobile, CHS, CHS, HEATCLINIC RESULT, UI WEB TEST RESULT, HEAT CLINIC RESULT, DotComUITablet, HRIS, HRIS_Cloud, HRIS_Local, Falcon, CreditSights, BrowserstackDemo, FalconSampleProj, DotComUITablet, GreyHealthGroup, FluorCorporation, AndroidDemoApp, MWBooking, AutomationDemoClient, APIAutomationDemoClient, APIAutomationClient, FLUOR, Atmecs,CHS, Atmecs,Atmecs, demo, CHS,Atmecs, CHS, TestMobileWeb, TestFalcon_runSessionId, swathi_signup account, Pooja_USAUTOPARTS, USAutoParts, USAutoParts_MUJ, TestMobileWeb_CnameDemo, IOSDemoApp, Mobile_Demo, TestDemoApp, UI BrowserStack Test Result, dbTesting</t>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo41,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
   </si>
   <si>
     <t>Recent Execution time</t>
@@ -79,6 +79,12 @@
     <t>Delete Run</t>
   </si>
   <si>
+    <t>Total test cases</t>
+  </si>
+  <si>
+    <t>10,1,2,2,1,1,4,10,2,12,1,1,4,1,1,0,2,2,1,4,4,0,1,6,6,6,4,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
@@ -119,6 +125,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Web Services </t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 2 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Feb7,2020</t>
   </si>
   <si>
     <t>Customer</t>
@@ -449,9 +467,6 @@
   </si>
   <si>
     <t>Productsnap</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
   </si>
   <si>
     <t>10 TEST(S)</t>
@@ -575,12 +590,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -625,6 +641,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -632,15 +655,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +670,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,20 +702,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,17 +717,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,10 +746,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,17 +769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,14 +783,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -789,79 +805,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,49 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,49 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,26 +1026,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,31 +1066,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,165 +1109,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,6 +1290,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1599,10 +1616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1631,7 +1648,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1681,6 +1698,14 @@
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1692,13 +1717,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="27.4285714285714" customWidth="1"/>
@@ -1714,58 +1739,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1799,66 +1840,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1887,25 +1928,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1913,22 +1954,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1936,22 +1977,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1962,19 +2003,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1982,22 +2023,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2005,22 +2046,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2028,16 +2069,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2045,16 +2086,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2062,16 +2103,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2079,16 +2120,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:5">
@@ -2096,16 +2137,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:5">
@@ -2113,16 +2154,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2130,16 +2171,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:5">
@@ -2147,16 +2188,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2164,16 +2205,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2181,16 +2222,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2198,16 +2239,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2215,16 +2256,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2232,16 +2273,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2249,16 +2290,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2266,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2274,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2282,7 +2323,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2290,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2298,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2306,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2314,7 +2355,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2322,7 +2363,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2330,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2338,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2346,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2354,7 +2395,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2362,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2370,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2378,7 +2419,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2386,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2394,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2402,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2410,7 +2451,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2418,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2426,7 +2467,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2434,7 +2475,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2442,7 +2483,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2450,7 +2491,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2458,7 +2499,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2466,7 +2507,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2474,7 +2515,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2482,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2490,7 +2531,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2498,7 +2539,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2506,7 +2547,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2514,7 +2555,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2522,7 +2563,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2530,7 +2571,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2538,7 +2579,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2546,7 +2587,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2579,74 +2620,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2728,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2695,47 +2736,47 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2752,7 +2793,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2771,74 +2812,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2872,34 +2913,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2933,78 +2974,78 @@
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -109,34 +109,34 @@
     <t>Regression</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Services </t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 2 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Feb10,2020</t>
+  </si>
+  <si>
+    <t>Start Text</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>23/01/2020 10:29:17</t>
+    <t>End Text</t>
   </si>
   <si>
     <t>End Time</t>
-  </si>
-  <si>
-    <t>23/01/2020 10:29:26</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Web Services </t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 2 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Feb7,2020</t>
   </si>
   <si>
     <t>Customer</t>
@@ -475,7 +475,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>RUN IN - 8 secs</t>
+    <t>RUN IN - 9 secs</t>
   </si>
   <si>
     <t>Passed Test Cases</t>
@@ -590,13 +590,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -648,14 +647,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +677,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,56 +731,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,22 +753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -770,7 +761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +774,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -805,19 +804,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,163 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,11 +1025,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,21 +1068,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1080,13 +1088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,176 +1114,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,15 +1285,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1619,7 +1616,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1648,7 +1645,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1719,8 +1716,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1769,11 +1766,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1781,11 +1778,11 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1805,7 +1802,7 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2678,7 +2675,7 @@
       <c r="A9" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2686,7 +2683,7 @@
       <c r="A10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2793,7 +2790,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
@@ -2838,7 +2835,7 @@
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2854,7 +2851,7 @@
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2870,7 +2867,7 @@
       <c r="A9" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>158</v>
       </c>
     </row>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="186">
   <si>
     <t>Validation Data</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Feb10,2020</t>
+    <t>Feb11,2020</t>
   </si>
   <si>
     <t>Start Text</t>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>ProductName</t>
+  </si>
+  <si>
+    <t>Dashboard Text</t>
   </si>
   <si>
     <t>CustomerName</t>
@@ -475,7 +478,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>RUN IN - 9 secs</t>
+    <t>RUN IN - 8 secs</t>
   </si>
   <si>
     <t>Passed Test Cases</t>
@@ -591,11 +594,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -640,14 +643,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +659,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,15 +688,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,6 +719,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -723,9 +749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,15 +764,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,29 +785,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -804,13 +807,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,169 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,39 +1028,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1073,17 +1043,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,6 +1093,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1125,148 +1128,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,7 +1291,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1717,7 +1720,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1908,22 +1911,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="18.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="2" max="3" width="27.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="18.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1940,13 +1943,16 @@
         <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1954,45 +1960,51 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2000,102 +2012,117 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
       </c>
       <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
       <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2103,199 +2130,211 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="60" spans="1:5">
+    <row r="11" ht="60" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:5">
+    <row r="12" ht="30" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:5">
+    <row r="14" ht="30" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
       </c>
       <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
         <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
       </c>
       <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2304,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2312,7 +2351,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2320,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2328,7 +2367,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2336,7 +2375,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2344,7 +2383,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2360,7 +2399,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2368,7 +2407,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2376,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2384,7 +2423,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2392,7 +2431,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2400,7 +2439,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2408,7 +2447,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2416,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2424,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2432,7 +2471,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2440,7 +2479,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2448,7 +2487,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2456,7 +2495,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2464,7 +2503,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2472,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2480,7 +2519,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2488,7 +2527,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2496,7 +2535,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2504,7 +2543,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2512,7 +2551,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2520,7 +2559,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2528,7 +2567,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2536,7 +2575,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2544,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2552,7 +2591,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2560,7 +2599,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2568,7 +2607,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2576,7 +2615,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2584,7 +2623,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2617,18 +2656,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2636,55 +2675,55 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2738,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2725,7 +2764,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2733,39 +2772,39 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2773,7 +2812,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2809,10 +2848,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2820,63 +2859,63 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2910,34 +2949,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2971,78 +3010,78 @@
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="272">
   <si>
     <t>Validation Data</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Feb11,2020</t>
+    <t>Feb12,2020</t>
   </si>
   <si>
     <t>Start Text</t>
@@ -196,49 +196,85 @@
     <t>Dashboard Text</t>
   </si>
   <si>
+    <t>Number Of Products</t>
+  </si>
+  <si>
     <t>CustomerName</t>
   </si>
   <si>
     <t>ModuleName</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Status Pass</t>
+  </si>
+  <si>
+    <t>Status Fail</t>
+  </si>
+  <si>
+    <t>Status Skip</t>
   </si>
   <si>
     <t>WebServices</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo42,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>atmecs</t>
   </si>
   <si>
     <t>module</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo43,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>WebServicesDemo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo44,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>FalconMobileDemo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo45,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>ObjectExtractor</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo46,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Sample</t>
   </si>
   <si>
     <t>SampleFalconAPITest</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo47,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo48,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>DotComUI_Mobile</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo49,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>dotcomui</t>
   </si>
   <si>
     <t>MWB</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo50,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
   </si>
   <si>
     <t>Jetblue</t>
@@ -250,7 +286,16 @@
 mwb(2)</t>
   </si>
   <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
     <t>MWB_IOS</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo51,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
   </si>
   <si>
     <t xml:space="preserve">mwb
@@ -260,10 +305,16 @@
     <t>JB_NATIVE_APP_IOS</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo52,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>jetblue</t>
   </si>
   <si>
     <t>Falcon2,Fal</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo53,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
   </si>
   <si>
     <t>Fal
@@ -274,18 +325,27 @@
 Sample2</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo54,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>mwb</t>
   </si>
   <si>
     <t>FalconDemo41</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo55,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Atmecs</t>
   </si>
   <si>
     <t>CreditSightsMobile</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo56,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Select Customer</t>
   </si>
   <si>
@@ -295,114 +355,319 @@
     <t>CHS</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo57,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo58,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>HEATCLINIC RESULT</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo59,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>HeatClinic</t>
   </si>
   <si>
     <t>Loginexcel</t>
   </si>
   <si>
+    <t>browserstacklocal</t>
+  </si>
+  <si>
     <t>UI WEB TEST RESULT</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo60,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>HEAT CLINIC RESULT</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo61,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>DotComUITablet</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo62,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>HRIS</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo63,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>hris</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
     <t>HRIS_Cloud</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo64,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>HRIS_Local</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo65,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo66,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>CreditSights</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo67,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>BrowsersatckDemo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo68,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>FalconSampleProj</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo69,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Default suite</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo70,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>dotcom</t>
+  </si>
+  <si>
     <t>GreyHealthGroup</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo71,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Demo Suite</t>
+  </si>
+  <si>
     <t>FluorCorporation</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo72,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>FlourCorporation</t>
+  </si>
+  <si>
+    <t>Maximo Use Case Suite
+SharePointPOCSuite</t>
+  </si>
+  <si>
     <t>AndroidDemoApp</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo73,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>TestNG Forum</t>
+  </si>
+  <si>
     <t>MWBooking</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo74,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>AutomationDemoClient</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo75,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Maximo Suite
+SharePointPOC Suite</t>
+  </si>
+  <si>
     <t>APIAutomationDemoClient</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo76,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Falocn</t>
+  </si>
+  <si>
+    <t>CreateFalconPosts</t>
+  </si>
+  <si>
     <t>APIAutomationClient</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo77,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>FLUORCorporation</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo78,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>FLUOR</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
     <t>Atmecs,CHS</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo79,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Atmecs
+CHS</t>
+  </si>
+  <si>
+    <t>one
+three
+two</t>
+  </si>
+  <si>
     <t>Atmecs,Atmecs</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo80,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>one
+two</t>
+  </si>
+  <si>
     <t>demo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo81,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>CHS,Atmecs</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo82,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Atmecs#QA
+Atmecs#UAT
+CHS#QA
+CHS#UAT</t>
+  </si>
+  <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo83,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>CHS#QA
+CHS#UAT</t>
+  </si>
+  <si>
     <t>TestMobileWeb</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo84,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>TestFalcon_runSessionId</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo85,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>swathi_signup account</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo86,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Pooja_USAUTOPARTS</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo87,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>USAutoParts</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo88,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
     <t>USAutoParts_MUJ</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo89,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>TestMobileWeb_CnameDemo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo90,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>IOSDemoApp</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo91,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Mobile_Demo</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo92,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>TestDemoApp</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo93,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>UI BrowserStack Test Result</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo94,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>UIBrowserStack TestResult</t>
+  </si>
+  <si>
     <t>dbTesting</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo95,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,UI WEB TEST RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
+    <t>databaseTesting</t>
+  </si>
+  <si>
+    <t>DbConnect</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -478,7 +743,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>RUN IN - 8 secs</t>
+    <t>RUN IN - 7 secs</t>
   </si>
   <si>
     <t>Passed Test Cases</t>
@@ -518,6 +783,9 @@
   </si>
   <si>
     <t>Status option</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Details option</t>
@@ -595,8 +863,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -651,14 +919,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,15 +940,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -703,31 +971,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,14 +996,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +1018,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,8 +1039,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,37 +1075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +1099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +1135,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,103 +1243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,30 +1296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,17 +1311,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,16 +1354,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,148 +1396,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1619,7 +1887,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1719,7 +1987,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1911,48 +2179,61 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="27.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="18.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="2" max="5" width="27.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="24.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="21.5714285714286" customWidth="1"/>
+    <col min="8" max="10" width="10.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="18.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1963,48 +2244,72 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,114 +2320,186 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2133,497 +2510,1814 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="60" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="45" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="30" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" ht="60" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="30" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2656,18 +4350,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2675,55 +4369,55 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +4458,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2772,39 +4466,39 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2812,7 +4506,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2829,7 +4523,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2848,10 +4542,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2859,63 +4553,63 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2949,34 +4643,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +4685,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3010,78 +4704,78 @@
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,16 @@
     <sheet name="TC08_Views" sheetId="6" r:id="rId7"/>
     <sheet name="TC09_StepsOfProduct" sheetId="10" r:id="rId8"/>
     <sheet name="TC10_TestCases" sheetId="11" r:id="rId9"/>
+    <sheet name="REST API TEST RESULT" sheetId="12" r:id="rId10"/>
+    <sheet name="WebServices" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A21:G30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="288">
   <si>
     <t>Validation Data</t>
   </si>
@@ -855,6 +857,54 @@
   </si>
   <si>
     <t>Fail percent color</t>
+  </si>
+  <si>
+    <t>Recentruns Page title</t>
+  </si>
+  <si>
+    <t>Recent Runs Panel Title</t>
+  </si>
+  <si>
+    <t>View Panel Title</t>
+  </si>
+  <si>
+    <t>Product Snapshot Text</t>
+  </si>
+  <si>
+    <t>Products Texts</t>
+  </si>
+  <si>
+    <t>Products Recent Execution time</t>
+  </si>
+  <si>
+    <t>List of Test Cases</t>
+  </si>
+  <si>
+    <t>Feb13,2020</t>
+  </si>
+  <si>
+    <t>Status Title</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>Product Text</t>
+  </si>
+  <si>
+    <t>Component Text</t>
+  </si>
+  <si>
+    <t>Testcase Text</t>
+  </si>
+  <si>
+    <t>Pass Percent Text</t>
+  </si>
+  <si>
+    <t>Last Run Text</t>
+  </si>
+  <si>
+    <t>RUN IN - 8 secs</t>
   </si>
 </sst>
 </file>
@@ -862,11 +912,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -885,6 +935,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -898,12 +954,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -911,15 +961,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,10 +975,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,37 +993,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,15 +1009,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,7 +1024,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,7 +1075,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1125,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,19 +1155,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,25 +1203,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,37 +1281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,19 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,55 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,6 +1316,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFDBE2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1291,7 +1350,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFCFDBE2"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,41 +1397,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,21 +1433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1396,16 +1446,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,153 +1464,154 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -1887,7 +1938,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1916,7 +1967,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1978,6 +2029,509 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="28.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:2">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:2">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1988,7 +2542,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2041,7 +2595,7 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2057,7 +2611,7 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2089,7 +2643,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2158,7 +2712,7 @@
       <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2594,7 +3148,7 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="H11" t="s">
@@ -2632,7 +3186,7 @@
       <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H12" t="s">
@@ -2705,10 +3259,10 @@
       <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="9" t="s">
         <v>97</v>
       </c>
       <c r="H14" t="s">
@@ -3427,7 +3981,7 @@
       <c r="F33" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H33" t="s">
@@ -3541,7 +4095,7 @@
       <c r="F36" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="9" t="s">
         <v>156</v>
       </c>
       <c r="H36" t="s">
@@ -3690,10 +4244,10 @@
       <c r="E40" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="9" t="s">
         <v>170</v>
       </c>
       <c r="H40" t="s">
@@ -3731,7 +4285,7 @@
       <c r="F41" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="9" t="s">
         <v>173</v>
       </c>
       <c r="H41" t="s">
@@ -3804,7 +4358,7 @@
       <c r="E43" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="9" t="s">
         <v>178</v>
       </c>
       <c r="G43" t="s">
@@ -3842,7 +4396,7 @@
       <c r="E44" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="9" t="s">
         <v>180</v>
       </c>
       <c r="G44" t="s">
@@ -4332,7 +4886,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4408,7 +4962,7 @@
       <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4416,7 +4970,7 @@
       <c r="A10" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4432,7 +4986,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4523,8 +5077,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4568,7 +5122,7 @@
       <c r="A5" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4584,7 +5138,7 @@
       <c r="A7" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4600,7 +5154,7 @@
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4624,7 +5178,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -4685,7 +5239,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4706,21 +5260,21 @@
       <c r="A2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -20,12 +20,12 @@
     <sheet name="WebServices" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A21:G30"/>
+  <oleSize ref="A35:G44"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="292">
   <si>
     <t>Validation Data</t>
   </si>
@@ -877,10 +877,19 @@
     <t>Products Recent Execution time</t>
   </si>
   <si>
+    <t>4 hours ago, 35 days ago, 43 days ago, 45 days ago, 49 days ago, 197 days ago, 211 days ago, 211 days ago, 213 days ago, 232 days ago, 237 days ago, 238 days ago, 239 days ago, 245 days ago, 247 days ago, 254 days ago, 260 days ago, 260 days ago, 268 days ago, 329 days ago, 344 days ago, 351 days ago, 366 days ago, 374 days ago, 374 days ago, 379 days ago, 395 days ago, 435 days ago, 441 days ago, 469 days ago, 521 days ago, 587 days ago, 596 days ago, 601 days ago, 603 days ago, 603 days ago, 603 days ago, 624 days ago, 629 days ago, 629 days ago, 658 days ago, 699 days ago, 699 days ago, 736 days ago, 742 days ago, 758 days ago, 758 days ago, 759 days ago, 763 days ago, 792 days ago, 794 days ago, 800 days ago, 808 days ago, 819 days ago, 833 days ago</t>
+  </si>
+  <si>
+    <t>rgba(34, 34, 34, 1)</t>
+  </si>
+  <si>
+    <t>Web Services</t>
+  </si>
+  <si>
     <t>List of Test Cases</t>
   </si>
   <si>
-    <t>Feb13,2020</t>
+    <t>Feb14,2020</t>
   </si>
   <si>
     <t>Status Title</t>
@@ -889,6 +898,9 @@
     <t>Delete Product</t>
   </si>
   <si>
+    <t>Download Message</t>
+  </si>
+  <si>
     <t>Product Text</t>
   </si>
   <si>
@@ -904,7 +916,7 @@
     <t>Last Run Text</t>
   </si>
   <si>
-    <t>RUN IN - 8 secs</t>
+    <t>RUN IN - 9 secs</t>
   </si>
 </sst>
 </file>
@@ -912,11 +924,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -935,15 +947,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
       <charset val="134"/>
     </font>
     <font>
@@ -961,6 +973,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -972,6 +998,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,6 +1048,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1015,60 +1079,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,16 +1101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,43 +1137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,31 +1179,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,19 +1245,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,49 +1311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,15 +1363,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,6 +1421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1446,148 +1458,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,11 +1607,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1610,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2038,7 +2050,7 @@
   <sheetPr/>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -2143,7 +2155,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2166,8 +2178,8 @@
       <c r="A15" t="s">
         <v>269</v>
       </c>
-      <c r="B15" t="s">
-        <v>270</v>
+      <c r="B15" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2198,13 +2210,13 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
+      <c r="B19" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2214,8 +2226,8 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>279</v>
+      <c r="B21" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2276,7 +2288,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -2286,7 +2298,7 @@
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2324,7 +2336,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2332,7 +2344,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -2340,7 +2352,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
         <v>213</v>
@@ -2348,7 +2360,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s">
         <v>214</v>
@@ -2356,7 +2368,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
         <v>216</v>
@@ -2364,7 +2376,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s">
         <v>218</v>
@@ -2372,7 +2384,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
         <v>219</v>
@@ -2391,7 +2403,7 @@
         <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2595,7 +2607,7 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2712,7 +2724,7 @@
       <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="6" activeTab="9"/>
+    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
-    <sheet name="TC04_Product Page" sheetId="2" r:id="rId2"/>
-    <sheet name="TC05_Dropdowns" sheetId="3" r:id="rId3"/>
-    <sheet name="Products" sheetId="9" r:id="rId4"/>
-    <sheet name="TC06_Recent Runs" sheetId="4" r:id="rId5"/>
-    <sheet name="TC07_Main Navigation" sheetId="5" r:id="rId6"/>
-    <sheet name="TC08_Views" sheetId="6" r:id="rId7"/>
-    <sheet name="TC09_StepsOfProduct" sheetId="10" r:id="rId8"/>
-    <sheet name="TC10_TestCases" sheetId="11" r:id="rId9"/>
-    <sheet name="REST API TEST RESULT" sheetId="12" r:id="rId10"/>
-    <sheet name="WebServices" sheetId="13" r:id="rId11"/>
+    <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
+    <sheet name="TC04_Product Page" r:id="rId2" sheetId="2"/>
+    <sheet name="TC05_Dropdowns" r:id="rId3" sheetId="3"/>
+    <sheet name="Products" r:id="rId4" sheetId="9"/>
+    <sheet name="TC06_Recent Runs" r:id="rId5" sheetId="4"/>
+    <sheet name="TC07_Main Navigation" r:id="rId6" sheetId="5"/>
+    <sheet name="TC08_Views" r:id="rId7" sheetId="6"/>
+    <sheet name="TC09_StepsOfProduct" r:id="rId8" sheetId="10"/>
+    <sheet name="TC10_TestCases" r:id="rId9" sheetId="11"/>
+    <sheet name="REST API TEST RESULT" r:id="rId10" sheetId="12"/>
+    <sheet name="WebServices" r:id="rId11" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A35:G44"/>
+  <oleSize ref="B3:H12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="292">
   <si>
     <t>Validation Data</t>
   </si>
@@ -877,19 +877,16 @@
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>4 hours ago, 35 days ago, 43 days ago, 45 days ago, 49 days ago, 197 days ago, 211 days ago, 211 days ago, 213 days ago, 232 days ago, 237 days ago, 238 days ago, 239 days ago, 245 days ago, 247 days ago, 254 days ago, 260 days ago, 260 days ago, 268 days ago, 329 days ago, 344 days ago, 351 days ago, 366 days ago, 374 days ago, 374 days ago, 379 days ago, 395 days ago, 435 days ago, 441 days ago, 469 days ago, 521 days ago, 587 days ago, 596 days ago, 601 days ago, 603 days ago, 603 days ago, 603 days ago, 624 days ago, 629 days ago, 629 days ago, 658 days ago, 699 days ago, 699 days ago, 736 days ago, 742 days ago, 758 days ago, 758 days ago, 759 days ago, 763 days ago, 792 days ago, 794 days ago, 800 days ago, 808 days ago, 819 days ago, 833 days ago</t>
+    <t>2 hours ago,38 days ago,46 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,216 days ago,235 days ago,241 days ago,241 days ago,242 days ago,248 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,332 days ago,347 days ago,355 days ago,370 days ago,378 days ago,378 days ago,382 days ago,399 days ago,438 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,604 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,761 days ago,762 days ago,766 days ago,795 days ago,798 days ago,803 days ago,811 days ago,822 days ago,836 days ago</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
   </si>
   <si>
-    <t>Web Services</t>
-  </si>
-  <si>
     <t>List of Test Cases</t>
   </si>
   <si>
-    <t>Feb14,2020</t>
+    <t>Feb17,2020</t>
   </si>
   <si>
     <t>Status Title</t>
@@ -916,7 +913,10 @@
     <t>Last Run Text</t>
   </si>
   <si>
-    <t>RUN IN - 9 secs</t>
+    <t>RUN IN - 8 secs</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -924,11 +924,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -973,14 +973,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,23 +1002,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,13 +1048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1079,8 +1072,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,24 +1109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,13 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,61 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,37 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,31 +1215,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,23 +1361,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,11 +1391,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,16 +1431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,230 +1457,230 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="21" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="31" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="12" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="12" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="179" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1694,10 +1694,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1861,21 +1861,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1892,7 +1892,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1945,21 +1945,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="39.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row ht="16.5" r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2039,30 +2039,35 @@
         <v>19</v>
       </c>
     </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="28.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.2857142857143" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:2">
+    <row customFormat="1" r="2" spans="1:2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2078,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:2">
+    <row customFormat="1" r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2086,23 +2091,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:2">
+    <row customFormat="1" r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:2">
       <c r="A5" t="s">
         <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:2">
+        <v>214</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:2">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -2110,12 +2115,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:2">
+    <row customFormat="1" r="7" spans="1:2">
       <c r="A7" t="s">
         <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2206,17 +2211,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:2">
+    <row ht="15.75" r="19" spans="1:2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2227,7 +2232,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2288,7 +2293,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -2336,7 +2341,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2344,7 +2349,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -2352,7 +2357,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s">
         <v>213</v>
@@ -2360,7 +2365,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
         <v>214</v>
@@ -2368,7 +2373,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
         <v>216</v>
@@ -2376,7 +2381,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
         <v>218</v>
@@ -2384,7 +2389,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
         <v>219</v>
@@ -2403,7 +2408,7 @@
         <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2478,7 +2483,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:2">
+    <row ht="15.75" r="53" spans="1:2">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:2">
+    <row ht="15.75" r="54" spans="1:2">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2527,31 +2532,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -2559,11 +2564,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:2">
+    <row ht="15.75" r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2644,15 +2649,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B9"/>
@@ -2660,11 +2665,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,15 +2742,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2753,15 +2758,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="27.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="24.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="21.5714285714286" customWidth="1"/>
-    <col min="8" max="10" width="10.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="18.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="2" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.4285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="10.8571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="60" spans="1:12">
+    <row ht="60" r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:12">
+    <row ht="30" r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:12">
+    <row ht="30" r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3974,7 +3979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" ht="37" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="37" r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="36" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="36" r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" ht="45" spans="1:12">
+    <row ht="45" r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4278,7 +4283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" ht="30" spans="1:12">
+    <row ht="30" r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" ht="60" spans="1:12">
+    <row ht="60" r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" ht="30" spans="1:12">
+    <row ht="30" r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4887,15 +4892,207 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -4903,10 +5100,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4919,198 +5116,6 @@
         <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5179,27 +5184,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5240,15 +5245,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -5256,11 +5261,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+    <row customFormat="1" ht="15.75" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row ht="15.75" r="2" spans="1:4">
       <c r="A2" t="s">
         <v>255</v>
       </c>
@@ -5345,7 +5350,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
+    <workbookView activeTab="10" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
     <sheet name="TC04_Product Page" r:id="rId2" sheetId="2"/>
     <sheet name="TC05_Dropdowns" r:id="rId3" sheetId="3"/>
     <sheet name="Products" r:id="rId4" sheetId="9"/>
-    <sheet name="TC06_Recent Runs" r:id="rId5" sheetId="4"/>
-    <sheet name="TC07_Main Navigation" r:id="rId6" sheetId="5"/>
-    <sheet name="TC08_Views" r:id="rId7" sheetId="6"/>
-    <sheet name="TC09_StepsOfProduct" r:id="rId8" sheetId="10"/>
-    <sheet name="TC10_TestCases" r:id="rId9" sheetId="11"/>
-    <sheet name="REST API TEST RESULT" r:id="rId10" sheetId="12"/>
-    <sheet name="WebServices" r:id="rId11" sheetId="13"/>
+    <sheet name="TC07_Main Navigation" r:id="rId5" sheetId="5"/>
+    <sheet name="TC08_Views" r:id="rId6" sheetId="6"/>
+    <sheet name="TC09_StepsOfProduct" r:id="rId7" sheetId="10"/>
+    <sheet name="TC10_TestCases" r:id="rId8" sheetId="11"/>
+    <sheet name="TC06_Recent Runs" r:id="rId9" sheetId="4"/>
+    <sheet name="rest" r:id="rId10" sheetId="12"/>
+    <sheet name="REST API TEST RESULT" r:id="rId11" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B3:H12"/>
+  <oleSize ref="B2:H11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="298">
   <si>
     <t>Validation Data</t>
   </si>
@@ -670,18 +670,162 @@
     <t>DbConnect</t>
   </si>
   <si>
+    <t>Dasboard Page</t>
+  </si>
+  <si>
+    <t>Recentruns</t>
+  </si>
+  <si>
+    <t>Recent Runs</t>
+  </si>
+  <si>
+    <t>Recentruns Page</t>
+  </si>
+  <si>
+    <t>View option</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Panel Title</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Viewpanel</t>
+  </si>
+  <si>
+    <t>Productsnap</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Recent Runs</t>
+    <t>10 TEST(S)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>RUN IN - 7 secs</t>
+  </si>
+  <si>
+    <t>Passed Test Cases</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Pass Percent</t>
+  </si>
+  <si>
+    <t>PASS - 90%</t>
+  </si>
+  <si>
+    <t>Failed Test Cases</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fail message</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Skipped Test Cases</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Skip message</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Status option</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Details option</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Executing test case</t>
+  </si>
+  <si>
+    <t>Request Body</t>
+  </si>
+  <si>
+    <t>Request Body prepared successfully</t>
+  </si>
+  <si>
+    <t>Failed Test Case</t>
+  </si>
+  <si>
+    <t>invalidLinkApiTest</t>
+  </si>
+  <si>
+    <t>Passed Test Case</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest</t>
+  </si>
+  <si>
+    <t>Color of total test cases</t>
+  </si>
+  <si>
+    <t>rgba(103, 58, 183, 1)</t>
+  </si>
+  <si>
+    <t>Color of pass test cases</t>
+  </si>
+  <si>
+    <t>rgba(0, 150, 136, 1)</t>
+  </si>
+  <si>
+    <t>Color of fail test cases</t>
+  </si>
+  <si>
+    <t>rgba(244, 67, 54, 1)</t>
+  </si>
+  <si>
+    <t>Color of skip test cases</t>
+  </si>
+  <si>
+    <t>rgba(33, 150, 243, 1)</t>
+  </si>
+  <si>
+    <t>Tooltip message</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Pass percent color</t>
+  </si>
+  <si>
+    <t>rgba(76, 175, 80, 1)</t>
+  </si>
+  <si>
+    <t>Fail percent color</t>
   </si>
   <si>
     <t>Panel Text</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -715,150 +859,6 @@
     <t>100 %</t>
   </si>
   <si>
-    <t>Dasboard Page</t>
-  </si>
-  <si>
-    <t>Recentruns</t>
-  </si>
-  <si>
-    <t>Recentruns Page</t>
-  </si>
-  <si>
-    <t>View option</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Panel Title</t>
-  </si>
-  <si>
-    <t>Viewpanel</t>
-  </si>
-  <si>
-    <t>Productsnap</t>
-  </si>
-  <si>
-    <t>10 TEST(S)</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>RUN IN - 7 secs</t>
-  </si>
-  <si>
-    <t>Passed Test Cases</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Pass Percent</t>
-  </si>
-  <si>
-    <t>PASS - 90%</t>
-  </si>
-  <si>
-    <t>Failed Test Cases</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Fail message</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Skipped Test Cases</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Skip message</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Status option</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Details option</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Executing test case</t>
-  </si>
-  <si>
-    <t>Request Body</t>
-  </si>
-  <si>
-    <t>Request Body prepared successfully</t>
-  </si>
-  <si>
-    <t>Failed Test Case</t>
-  </si>
-  <si>
-    <t>invalidLinkApiTest</t>
-  </si>
-  <si>
-    <t>Passed Test Case</t>
-  </si>
-  <si>
-    <t>deleteProjectApiTest</t>
-  </si>
-  <si>
-    <t>Color of total test cases</t>
-  </si>
-  <si>
-    <t>rgba(103, 58, 183, 1)</t>
-  </si>
-  <si>
-    <t>Color of pass test cases</t>
-  </si>
-  <si>
-    <t>rgba(0, 150, 136, 1)</t>
-  </si>
-  <si>
-    <t>Color of fail test cases</t>
-  </si>
-  <si>
-    <t>rgba(244, 67, 54, 1)</t>
-  </si>
-  <si>
-    <t>Color of skip test cases</t>
-  </si>
-  <si>
-    <t>rgba(33, 150, 243, 1)</t>
-  </si>
-  <si>
-    <t>Tooltip message</t>
-  </si>
-  <si>
-    <t>Total Test Cases</t>
-  </si>
-  <si>
-    <t>Pass percent color</t>
-  </si>
-  <si>
-    <t>rgba(76, 175, 80, 1)</t>
-  </si>
-  <si>
-    <t>Fail percent color</t>
-  </si>
-  <si>
     <t>Recentruns Page title</t>
   </si>
   <si>
@@ -877,46 +877,64 @@
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>2 hours ago,38 days ago,46 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,216 days ago,235 days ago,241 days ago,241 days ago,242 days ago,248 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,332 days ago,347 days ago,355 days ago,370 days ago,378 days ago,378 days ago,382 days ago,399 days ago,438 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,604 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,761 days ago,762 days ago,766 days ago,795 days ago,798 days ago,803 days ago,811 days ago,822 days ago,836 days ago</t>
+    <t>46 minutes ago,38 days ago,46 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,438 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,762 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+  </si>
+  <si>
+    <t>List of Test Cases</t>
+  </si>
+  <si>
+    <t>Feb17,2020</t>
+  </si>
+  <si>
+    <t>Feb18,2020</t>
+  </si>
+  <si>
+    <t>Status Title</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>Download Message</t>
+  </si>
+  <si>
+    <t>Product Text</t>
+  </si>
+  <si>
+    <t>Component Text</t>
+  </si>
+  <si>
+    <t>Testcase Text</t>
+  </si>
+  <si>
+    <t>Pass Percent Text</t>
+  </si>
+  <si>
+    <t>Last Run Text</t>
+  </si>
+  <si>
+    <t>RUN IN - 8 secs</t>
+  </si>
+  <si>
+    <t>Start text</t>
+  </si>
+  <si>
+    <t>End text</t>
+  </si>
+  <si>
+    <t>1 hour ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,762 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
   </si>
   <si>
-    <t>List of Test Cases</t>
-  </si>
-  <si>
-    <t>Feb17,2020</t>
-  </si>
-  <si>
-    <t>Status Title</t>
-  </si>
-  <si>
-    <t>Delete Product</t>
-  </si>
-  <si>
-    <t>Download Message</t>
-  </si>
-  <si>
-    <t>Product Text</t>
-  </si>
-  <si>
-    <t>Component Text</t>
-  </si>
-  <si>
-    <t>Testcase Text</t>
-  </si>
-  <si>
-    <t>Pass Percent Text</t>
-  </si>
-  <si>
-    <t>Last Run Text</t>
-  </si>
-  <si>
-    <t>RUN IN - 8 secs</t>
-  </si>
-  <si>
-    <t/>
+    <t>1 hour ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,215 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,763 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,215 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,762 days ago,762 days ago,763 days ago,766 days ago,796 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,39 days ago,47 days ago,49 days ago,54 days ago,202 days ago,215 days ago,215 days ago,217 days ago,236 days ago,242 days ago,242 days ago,243 days ago,249 days ago,251 days ago,259 days ago,265 days ago,265 days ago,273 days ago,333 days ago,348 days ago,356 days ago,371 days ago,379 days ago,379 days ago,383 days ago,400 days ago,439 days ago,445 days ago,473 days ago,525 days ago,591 days ago,601 days ago,605 days ago,608 days ago,608 days ago,608 days ago,628 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,762 days ago,762 days ago,763 days ago,767 days ago,796 days ago,799 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
   </si>
 </sst>
 </file>
@@ -924,11 +942,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -973,12 +991,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -993,6 +1012,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1001,24 +1027,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1061,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,25 +1090,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,14 +1121,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,7 +1155,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,19 +1233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1263,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,127 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,39 +1376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1406,6 +1391,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1416,6 +1410,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1455,151 +1464,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="8" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="10" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="21" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="19" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="31" fontId="23" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="21" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="12" fontId="16" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="18" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="12" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="20" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1622,12 +1640,12 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="179" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1956,7 +1974,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:2">
@@ -2055,14 +2073,14 @@
   <sheetPr/>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="33.2857142857143" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="20.7142857142857" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
   </cols>
@@ -2092,40 +2110,40 @@
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" spans="1:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2133,7 +2151,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2141,7 +2159,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -2149,7 +2167,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2157,7 +2175,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>278</v>
@@ -2165,7 +2183,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -2173,87 +2191,87 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row ht="15.75" r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -2261,7 +2279,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -2269,7 +2287,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -2277,15 +2295,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -2293,63 +2311,63 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -2357,55 +2375,55 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
         <v>290</v>
@@ -2413,122 +2431,122 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>240</v>
+      </c>
+    </row>
+    <row ht="15.75" r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>236</v>
+      </c>
+    </row>
+    <row ht="15.75" r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row ht="15.75" r="53" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row ht="15.75" r="54" spans="1:2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>255</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>258</v>
+        <v>270</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>221</v>
+        <v>291</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>223</v>
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2540,14 +2558,483 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.2857142857143" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row ht="15.75" r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row ht="15.75" r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -4900,106 +5387,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5029,7 +5416,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -5037,39 +5424,39 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -5077,7 +5464,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5089,7 +5476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:C10"/>
@@ -5113,10 +5500,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5124,63 +5511,63 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:C5"/>
@@ -5214,34 +5601,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5250,7 +5637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:E10"/>
@@ -5275,35 +5662,135 @@
     </row>
     <row ht="15.75" r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>262</v>
@@ -5330,23 +5817,23 @@
         <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="308">
   <si>
     <t>Validation Data</t>
   </si>
@@ -922,19 +922,49 @@
     <t>End text</t>
   </si>
   <si>
-    <t>1 hour ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,762 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+    <t>1 hour ago,39 days ago,47 days ago,49 days ago,54 days ago,202 days ago,215 days ago,215 days ago,218 days ago,237 days ago,242 days ago,242 days ago,244 days ago,250 days ago,251 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,525 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,628 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,762 days ago,763 days ago,763 days ago,767 days ago,796 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
   </si>
   <si>
-    <t>1 hour ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,215 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,763 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,38 days ago,47 days ago,48 days ago,53 days ago,201 days ago,214 days ago,215 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,439 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,762 days ago,762 days ago,763 days ago,766 days ago,796 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,39 days ago,47 days ago,49 days ago,54 days ago,202 days ago,215 days ago,215 days ago,217 days ago,236 days ago,242 days ago,242 days ago,243 days ago,249 days ago,251 days ago,259 days ago,265 days ago,265 days ago,273 days ago,333 days ago,348 days ago,356 days ago,371 days ago,379 days ago,379 days ago,383 days ago,400 days ago,439 days ago,445 days ago,473 days ago,525 days ago,591 days ago,601 days ago,605 days ago,608 days ago,608 days ago,608 days ago,628 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,762 days ago,762 days ago,763 days ago,767 days ago,796 days ago,799 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+    <t>4 hours ago,40 days ago,48 days ago,50 days ago,54 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>4 hours ago,40 days ago,48 days ago,50 days ago,54 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,635 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,664 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>15 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>24 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>33 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,334 days ago,349 days ago,357 days ago,372 days ago,380 days ago,380 days ago,384 days ago,401 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,602 days ago,606 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,245 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,606 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
   </si>
 </sst>
 </file>
@@ -942,11 +972,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -991,7 +1021,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,8 +1042,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,9 +1058,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,16 +1096,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,25 +1126,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,15 +1149,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,7 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,13 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,37 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,43 +1281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,13 +1311,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,19 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,30 +1421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1426,6 +1432,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,21 +1489,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
@@ -1494,130 +1524,130 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="10" fontId="15" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="19" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="30" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="18" fontId="20" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="6" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="24" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="23" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="16" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="19" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1640,7 +1670,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -2561,7 +2591,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2607,7 +2637,7 @@
         <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2663,7 +2693,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="322">
   <si>
     <t>Validation Data</t>
   </si>
@@ -965,6 +965,48 @@
   </si>
   <si>
     <t>3 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,245 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,606 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,245 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+  </si>
+  <si>
+    <t>33 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,40 days ago,49 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>4 hours ago,41 days ago,49 days ago,51 days ago,55 days ago,203 days ago,216 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,630 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>Feb20,2020</t>
+  </si>
+  <si>
+    <t>RUN IN - 9 secs</t>
+  </si>
+  <si>
+    <t>5 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>36 minutes ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,266 days ago,266 days ago,275 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,609 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,357 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,358 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,358 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2679,7 @@
         <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2693,7 +2735,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2765,7 +2807,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="328">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1007,6 +1007,24 @@
   </si>
   <si>
     <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,358 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
+  </si>
+  <si>
+    <t>17 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>rgb(34, 34, 34)</t>
+  </si>
+  <si>
+    <t>rgb(244, 67, 54)</t>
+  </si>
+  <si>
+    <t>Feb21,2020</t>
+  </si>
+  <si>
+    <t>26 minutes ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,765 days ago,765 days ago,769 days ago,798 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2149,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2753,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2807,7 +2825,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="344">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1025,6 +1025,54 @@
   </si>
   <si>
     <t>1 hour ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,765 days ago,765 days ago,769 days ago,798 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,41 days ago,50 days ago,51 days ago,56 days ago,204 days ago,217 days ago,218 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,765 days ago,765 days ago,766 days ago,769 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,42 days ago,50 days ago,52 days ago,56 days ago,204 days ago,217 days ago,218 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,765 days ago,765 days ago,766 days ago,769 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>9 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>16 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>17 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>20 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>23 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>24 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>25 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>29 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>56 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,403 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,604 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,594 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,247 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,247 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,337 days ago,352 days ago,359 days ago,374 days ago,382 days ago,382 days ago,387 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,609 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
   </si>
 </sst>
 </file>
@@ -2753,7 +2801,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2769,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2777,7 +2825,7 @@
         <v>257</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2785,7 +2833,7 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3057,7 +3105,7 @@
         <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3105,7 +3153,7 @@
         <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
+    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
     <sheet name="TC04_Product Page" r:id="rId2" sheetId="2"/>
     <sheet name="TC05_Dropdowns" r:id="rId3" sheetId="3"/>
     <sheet name="Products" r:id="rId4" sheetId="9"/>
-    <sheet name="TC07_Main Navigation" r:id="rId5" sheetId="5"/>
-    <sheet name="TC08_Views" r:id="rId6" sheetId="6"/>
-    <sheet name="TC09_StepsOfProduct" r:id="rId7" sheetId="10"/>
-    <sheet name="TC10_TestCases" r:id="rId8" sheetId="11"/>
-    <sheet name="TC06_Recent Runs" r:id="rId9" sheetId="4"/>
-    <sheet name="rest" r:id="rId10" sheetId="12"/>
-    <sheet name="REST API TEST RESULT" r:id="rId11" sheetId="13"/>
+    <sheet name="TC06_Recent Runs" r:id="rId5" sheetId="4"/>
+    <sheet name="TC07_Main Navigation" r:id="rId6" sheetId="5"/>
+    <sheet name="TC08_Views" r:id="rId7" sheetId="6"/>
+    <sheet name="TC09_StepsOfProduct" r:id="rId8" sheetId="10"/>
+    <sheet name="TC10_TestCases" r:id="rId9" sheetId="11"/>
+    <sheet name="REST API TEST RESULT" r:id="rId10" sheetId="12"/>
+    <sheet name="WebServices" r:id="rId11" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B2:H11"/>
+  <oleSize ref="A3:G12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="303">
   <si>
     <t>Validation Data</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>10,1,2,2,1,1,4,10,2,12,1,1,4,1,1,0,2,2,1,4,4,0,1,6,6,6,4,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Product</t>
@@ -670,15 +673,57 @@
     <t>DbConnect</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Recent Runs</t>
+  </si>
+  <si>
+    <t>Panel Text</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Testcases #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass Percent </t>
+  </si>
+  <si>
+    <t>Pass %</t>
+  </si>
+  <si>
+    <t>Last Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Completed </t>
+  </si>
+  <si>
+    <t>90 %</t>
+  </si>
+  <si>
+    <t>Sorting percentage</t>
+  </si>
+  <si>
+    <t>100 %</t>
+  </si>
+  <si>
     <t>Dasboard Page</t>
   </si>
   <si>
     <t>Recentruns</t>
   </si>
   <si>
-    <t>Recent Runs</t>
-  </si>
-  <si>
     <t>Recentruns Page</t>
   </si>
   <si>
@@ -691,18 +736,12 @@
     <t>Panel Title</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Viewpanel</t>
   </si>
   <si>
     <t>Productsnap</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>10 TEST(S)</t>
   </si>
   <si>
@@ -823,42 +862,6 @@
     <t>Fail percent color</t>
   </si>
   <si>
-    <t>Panel Text</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>Testcases #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass Percent </t>
-  </si>
-  <si>
-    <t>Pass %</t>
-  </si>
-  <si>
-    <t>Last Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Completed </t>
-  </si>
-  <si>
-    <t>90 %</t>
-  </si>
-  <si>
-    <t>Sorting percentage</t>
-  </si>
-  <si>
-    <t>100 %</t>
-  </si>
-  <si>
     <t>Recentruns Page title</t>
   </si>
   <si>
@@ -877,16 +880,16 @@
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>46 minutes ago,38 days ago,46 days ago,48 days ago,53 days ago,201 days ago,214 days ago,214 days ago,217 days ago,236 days ago,241 days ago,241 days ago,243 days ago,249 days ago,250 days ago,258 days ago,264 days ago,264 days ago,272 days ago,333 days ago,348 days ago,355 days ago,370 days ago,378 days ago,378 days ago,383 days ago,399 days ago,438 days ago,444 days ago,473 days ago,524 days ago,591 days ago,600 days ago,605 days ago,607 days ago,607 days ago,607 days ago,627 days ago,633 days ago,633 days ago,662 days ago,703 days ago,703 days ago,739 days ago,746 days ago,761 days ago,762 days ago,762 days ago,766 days ago,795 days ago,798 days ago,804 days ago,812 days ago,823 days ago,837 days ago</t>
+    <t>4 hours ago,45 days ago,53 days ago,55 days ago,59 days ago,207 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,450 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,639 days ago,639 days ago,668 days ago,709 days ago,709 days ago,745 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+  </si>
+  <si>
+    <t>rgb(34, 34, 34)</t>
   </si>
   <si>
     <t>List of Test Cases</t>
   </si>
   <si>
-    <t>Feb17,2020</t>
-  </si>
-  <si>
-    <t>Feb18,2020</t>
+    <t>Feb24,2020</t>
   </si>
   <si>
     <t>Status Title</t>
@@ -916,163 +919,37 @@
     <t>RUN IN - 8 secs</t>
   </si>
   <si>
-    <t>Start text</t>
-  </si>
-  <si>
-    <t>End text</t>
-  </si>
-  <si>
-    <t>1 hour ago,39 days ago,47 days ago,49 days ago,54 days ago,202 days ago,215 days ago,215 days ago,218 days ago,237 days ago,242 days ago,242 days ago,244 days ago,250 days ago,251 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,525 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,628 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,762 days ago,763 days ago,763 days ago,767 days ago,796 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
+    <t>5 hours ago,45 days ago,53 days ago,55 days ago,59 days ago,207 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,639 days ago,639 days ago,668 days ago,709 days ago,709 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+  </si>
+  <si>
+    <t>rgb(244, 67, 54)</t>
+  </si>
+  <si>
+    <t>rgb(103, 58, 183)</t>
+  </si>
+  <si>
+    <t>RUN IN - 9 secs</t>
+  </si>
+  <si>
+    <t>rgb(0, 150, 136)</t>
+  </si>
+  <si>
+    <t>rgb(33, 150, 243)</t>
+  </si>
+  <si>
+    <t>5 hours ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,640 days ago,640 days ago,669 days ago,709 days ago,709 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+  </si>
+  <si>
+    <t>56 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,270 days ago,270 days ago,279 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,613 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
   </si>
   <si>
-    <t>4 hours ago,40 days ago,48 days ago,50 days ago,54 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,740 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>4 hours ago,40 days ago,48 days ago,50 days ago,54 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,445 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,634 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,634 days ago,635 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,202 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,663 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,664 days ago,704 days ago,704 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,242 days ago,243 days ago,244 days ago,250 days ago,252 days ago,259 days ago,265 days ago,265 days ago,273 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,608 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>15 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,608 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>24 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>33 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,265 days ago,265 days ago,274 days ago,334 days ago,349 days ago,356 days ago,371 days ago,379 days ago,379 days ago,384 days ago,400 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,601 days ago,606 days ago,608 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,747 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,799 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,244 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,334 days ago,349 days ago,357 days ago,372 days ago,380 days ago,380 days ago,384 days ago,401 days ago,440 days ago,446 days ago,474 days ago,526 days ago,592 days ago,602 days ago,606 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,245 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,606 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,218 days ago,237 days ago,243 days ago,243 days ago,245 days ago,250 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,763 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,813 days ago,824 days ago,838 days ago</t>
-  </si>
-  <si>
-    <t>33 minutes ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,805 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,440 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,40 days ago,48 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,40 days ago,49 days ago,50 days ago,55 days ago,203 days ago,216 days ago,216 days ago,219 days ago,238 days ago,243 days ago,243 days ago,245 days ago,251 days ago,252 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,526 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,629 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,763 days ago,764 days ago,764 days ago,768 days ago,797 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>4 hours ago,41 days ago,49 days ago,51 days ago,55 days ago,203 days ago,216 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,446 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,630 days ago,635 days ago,635 days ago,664 days ago,705 days ago,705 days ago,741 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>Feb20,2020</t>
-  </si>
-  <si>
-    <t>RUN IN - 9 secs</t>
-  </si>
-  <si>
-    <t>5 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,609 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,243 days ago,244 days ago,245 days ago,251 days ago,253 days ago,260 days ago,266 days ago,266 days ago,274 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,602 days ago,607 days ago,609 days ago,609 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>36 minutes ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,266 days ago,266 days ago,275 days ago,335 days ago,350 days ago,357 days ago,372 days ago,380 days ago,380 days ago,385 days ago,401 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,609 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,748 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,357 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,800 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,358 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,475 days ago,527 days ago,593 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,219 days ago,238 days ago,244 days ago,244 days ago,245 days ago,251 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,335 days ago,350 days ago,358 days ago,373 days ago,381 days ago,381 days ago,385 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,607 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,814 days ago,825 days ago,839 days ago</t>
-  </si>
-  <si>
-    <t>17 hours ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>rgb(34, 34, 34)</t>
-  </si>
-  <si>
-    <t>rgb(244, 67, 54)</t>
-  </si>
-  <si>
-    <t>Feb21,2020</t>
-  </si>
-  <si>
-    <t>26 minutes ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,441 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,764 days ago,765 days ago,769 days ago,798 days ago,801 days ago,806 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,41 days ago,49 days ago,51 days ago,56 days ago,204 days ago,217 days ago,217 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,764 days ago,765 days ago,765 days ago,769 days ago,798 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,41 days ago,50 days ago,51 days ago,56 days ago,204 days ago,217 days ago,218 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,765 days ago,765 days ago,766 days ago,769 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,42 days ago,50 days ago,52 days ago,56 days ago,204 days ago,217 days ago,218 days ago,220 days ago,239 days ago,244 days ago,244 days ago,246 days ago,252 days ago,253 days ago,261 days ago,267 days ago,267 days ago,275 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,447 days ago,476 days ago,527 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,610 days ago,630 days ago,636 days ago,636 days ago,665 days ago,706 days ago,706 days ago,742 days ago,749 days ago,765 days ago,765 days ago,766 days ago,769 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>9 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>16 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>17 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>20 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,610 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>23 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>24 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>25 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>29 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,402 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,603 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>56 minutes ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,267 days ago,267 days ago,276 days ago,336 days ago,351 days ago,358 days ago,373 days ago,381 days ago,381 days ago,386 days ago,403 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,604 days ago,608 days ago,610 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,749 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,801 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,476 days ago,528 days ago,594 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,594 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,246 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,247 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,336 days ago,351 days ago,359 days ago,374 days ago,382 days ago,382 days ago,386 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,608 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,42 days ago,50 days ago,52 days ago,57 days ago,205 days ago,218 days ago,218 days ago,220 days ago,239 days ago,245 days ago,245 days ago,247 days ago,252 days ago,254 days ago,262 days ago,268 days ago,268 days ago,276 days ago,337 days ago,352 days ago,359 days ago,374 days ago,382 days ago,382 days ago,387 days ago,403 days ago,442 days ago,448 days ago,477 days ago,528 days ago,595 days ago,604 days ago,609 days ago,611 days ago,611 days ago,611 days ago,631 days ago,637 days ago,637 days ago,666 days ago,707 days ago,707 days ago,743 days ago,750 days ago,765 days ago,765 days ago,766 days ago,770 days ago,799 days ago,802 days ago,807 days ago,815 days ago,826 days ago,840 days ago</t>
+    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,270 days ago,270 days ago,279 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,385 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,339 days ago,354 days ago,361 days ago,377 days ago,385 days ago,385 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +957,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1129,15 +1006,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,14 +1021,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,14 +1035,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,6 +1068,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,44 +1148,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1293,7 +1170,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,25 +1266,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,13 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,37 +1332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,79 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,17 +1391,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,10 +1415,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1570,192 +1488,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="7" fontId="9" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="19" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="30" fontId="24" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="24" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="6" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,12 +1655,12 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2112,7 +1989,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:2">
@@ -2197,7 +2074,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2211,14 +2088,14 @@
   <sheetPr/>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="33.2857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="20.7142857142857" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
   </cols>
@@ -2233,7 +2110,7 @@
     </row>
     <row customFormat="1" r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2248,11 +2125,11 @@
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>272</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:2">
@@ -2265,18 +2142,18 @@
     </row>
     <row customFormat="1" r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:2">
       <c r="A7" t="s">
         <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2284,12 +2161,12 @@
         <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2297,10 +2174,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2313,15 +2190,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -2329,362 +2206,362 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" t="s">
-        <v>252</v>
+        <v>270</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="15.75" r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row ht="15.75" r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" t="s">
         <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>281</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" t="s">
-        <v>252</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row ht="15.75" r="50" spans="1:2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row ht="15.75" r="51" spans="1:2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row ht="15.75" r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
         <v>255</v>
       </c>
-      <c r="B53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+    </row>
+    <row ht="15.75" r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>270</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
+        <v>221</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
+        <v>223</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2696,483 +2573,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="29.2857142857143" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="15.75" r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>283</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B37" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>286</v>
-      </c>
-      <c r="B38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>287</v>
-      </c>
-      <c r="B39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row ht="15.75" r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row ht="15.75" r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>245</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>270</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -3203,74 +2611,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="15.75" r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3304,66 +2712,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3393,40 +2801,40 @@
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3434,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3446,25 +2854,25 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3472,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3481,28 +2889,28 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3519,28 +2927,28 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3548,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3557,28 +2965,28 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3586,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3595,28 +3003,28 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3624,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3633,28 +3041,28 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3662,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3671,28 +3079,28 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3700,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3709,28 +3117,28 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3738,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3747,28 +3155,28 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="60" r="11" spans="1:12">
@@ -3776,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3785,28 +3193,28 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="30" r="12" spans="1:12">
@@ -3814,37 +3222,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3852,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3861,28 +3269,28 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="30" r="14" spans="1:12">
@@ -3890,7 +3298,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3899,28 +3307,28 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3928,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3937,28 +3345,28 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3966,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3975,28 +3383,28 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4004,7 +3412,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -4013,28 +3421,28 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4042,7 +3450,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4051,28 +3459,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
         <v>108</v>
       </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4080,7 +3488,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -4089,28 +3497,28 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4118,7 +3526,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4127,28 +3535,28 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4156,7 +3564,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4165,28 +3573,28 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4194,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4203,28 +3611,28 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4232,7 +3640,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4241,25 +3649,25 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4267,7 +3675,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4276,28 +3684,28 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4305,7 +3713,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -4314,28 +3722,28 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" t="s">
-        <v>126</v>
-      </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4343,7 +3751,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -4352,28 +3760,28 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
         <v>129</v>
       </c>
-      <c r="F26" t="s">
-        <v>128</v>
-      </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4381,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -4390,28 +3798,28 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4419,7 +3827,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -4428,28 +3836,28 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
         <v>132</v>
       </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4457,7 +3865,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -4466,28 +3874,28 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4495,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -4504,28 +3912,28 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4533,7 +3941,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -4542,28 +3950,28 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4571,7 +3979,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -4580,28 +3988,28 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
         <v>143</v>
       </c>
-      <c r="F32" t="s">
-        <v>142</v>
-      </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="37" r="33" spans="1:12">
@@ -4609,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -4618,28 +4026,28 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4647,7 +4055,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -4656,28 +4064,28 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4685,7 +4093,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -4694,28 +4102,28 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="36" r="36" spans="1:12">
@@ -4723,7 +4131,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -4732,28 +4140,28 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" t="s">
-        <v>154</v>
-      </c>
       <c r="G36" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4761,7 +4169,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -4770,28 +4178,28 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4799,37 +4207,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="s">
         <v>161</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" t="s">
-        <v>160</v>
-      </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4837,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -4846,28 +4254,28 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="45" r="40" spans="1:12">
@@ -4875,7 +4283,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -4884,28 +4292,28 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="30" r="41" spans="1:12">
@@ -4913,7 +4321,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -4922,28 +4330,28 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4951,7 +4359,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -4960,28 +4368,28 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="60" r="43" spans="1:12">
@@ -4989,7 +4397,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -4998,28 +4406,28 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="30" r="44" spans="1:12">
@@ -5027,7 +4435,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -5036,28 +4444,28 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5065,7 +4473,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -5074,28 +4482,28 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -5103,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -5112,28 +4520,28 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5141,7 +4549,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -5150,28 +4558,28 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
         <v>186</v>
       </c>
-      <c r="F47" t="s">
-        <v>185</v>
-      </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5179,7 +4587,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -5188,28 +4596,28 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="F48" t="s">
-        <v>187</v>
-      </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -5217,7 +4625,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -5226,28 +4634,28 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" t="s">
         <v>190</v>
       </c>
-      <c r="F49" t="s">
-        <v>189</v>
-      </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -5255,7 +4663,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -5264,28 +4672,28 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
         <v>193</v>
       </c>
-      <c r="F50" t="s">
-        <v>192</v>
-      </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5293,7 +4701,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -5302,28 +4710,28 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -5331,7 +4739,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -5340,28 +4748,28 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5369,7 +4777,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -5378,28 +4786,28 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -5407,7 +4815,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -5416,28 +4824,28 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5445,7 +4853,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -5454,28 +4862,28 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -5483,7 +4891,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -5492,28 +4900,28 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5523,6 +4931,106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:C9"/>
@@ -5554,7 +5062,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -5562,7 +5070,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>211</v>
@@ -5570,7 +5078,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>211</v>
@@ -5578,31 +5086,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5614,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:C10"/>
@@ -5638,74 +5146,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>224</v>
+        <v>236</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5714,7 +5222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:C5"/>
@@ -5739,34 +5247,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:E10"/>
@@ -5800,127 +5308,27 @@
     </row>
     <row ht="15.75" r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
         <v>260</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
@@ -5931,47 +5339,47 @@
         <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="322">
   <si>
     <t>Validation Data</t>
   </si>
@@ -950,6 +950,63 @@
   </si>
   <si>
     <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,339 days ago,354 days ago,361 days ago,377 days ago,385 days ago,385 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+  </si>
+  <si>
+    <t>39 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,810 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>52 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>55 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>58 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,770 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,770 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,45 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,46 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,46 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,208 days ago,222 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,641 days ago,641 days ago,670 days ago,710 days ago,710 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>Feb25,2020</t>
+  </si>
+  <si>
+    <t>5 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>5 minutes ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,280 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>30 minutes ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,266 days ago,271 days ago,271 days ago,280 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,340 days ago,355 days ago,362 days ago,378 days ago,386 days ago,386 days ago,390 days ago,407 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,608 days ago,612 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2250,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2265,7 +2322,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2497,7 +2554,7 @@
         <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="332">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1007,6 +1007,36 @@
   </si>
   <si>
     <t>1 hour ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,340 days ago,355 days ago,362 days ago,378 days ago,386 days ago,386 days ago,390 days ago,407 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,608 days ago,612 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,251 days ago,256 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,446 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,806 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,46 days ago,55 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,770 days ago,770 days ago,774 days ago,803 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,46 days ago,55 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,770 days ago,771 days ago,774 days ago,803 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>Feb26,2020</t>
+  </si>
+  <si>
+    <t>2 hours ago,47 days ago,55 days ago,57 days ago,61 days ago,209 days ago,222 days ago,223 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,533 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,770 days ago,770 days ago,771 days ago,774 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,272 days ago,272 days ago,281 days ago,341 days ago,356 days ago,363 days ago,378 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,272 days ago,272 days ago,281 days ago,341 days ago,356 days ago,363 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,341 days ago,356 days ago,363 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,341 days ago,356 days ago,364 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,807 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,252 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,447 days ago,453 days ago,482 days ago,533 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,807 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2280,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2322,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2498,7 +2528,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2622,22 +2652,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="341">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1037,6 +1037,33 @@
   </si>
   <si>
     <t>3 hours ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,252 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,447 days ago,453 days ago,482 days ago,533 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,807 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,48 days ago,56 days ago,58 days ago,62 days ago,210 days ago,223 days ago,224 days ago,226 days ago,245 days ago,250 days ago,250 days ago,252 days ago,258 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,453 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,771 days ago,771 days ago,772 days ago,775 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
+  </si>
+  <si>
+    <t>4 hours ago,48 days ago,56 days ago,58 days ago,62 days ago,210 days ago,224 days ago,224 days ago,226 days ago,245 days ago,250 days ago,251 days ago,252 days ago,258 days ago,260 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,454 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,637 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,749 days ago,755 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,210 days ago,224 days ago,224 days ago,226 days ago,245 days ago,250 days ago,251 days ago,252 days ago,258 days ago,260 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,454 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,637 days ago,643 days ago,643 days ago,671 days ago,712 days ago,712 days ago,749 days ago,755 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,245 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,246 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,246 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,847 days ago</t>
+  </si>
+  <si>
+    <t>24 minutes ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,227 days ago,246 days ago,251 days ago,251 days ago,253 days ago,259 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,822 days ago,833 days ago,847 days ago</t>
+  </si>
+  <si>
+    <t>Feb28,2020</t>
+  </si>
+  <si>
+    <t>1 hour ago,48 days ago,57 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,227 days ago,246 days ago,251 days ago,251 days ago,253 days ago,259 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,449 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,772 days ago,772 days ago,776 days ago,805 days ago,808 days ago,814 days ago,822 days ago,833 days ago,847 days ago</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2307,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2352,7 +2379,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2440,7 +2467,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2456,7 +2483,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="346">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1064,6 +1064,21 @@
   </si>
   <si>
     <t>1 hour ago,48 days ago,57 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,227 days ago,246 days ago,251 days ago,251 days ago,253 days ago,259 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,449 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,772 days ago,772 days ago,776 days ago,805 days ago,808 days ago,814 days ago,822 days ago,833 days ago,847 days ago</t>
+  </si>
+  <si>
+    <t>4 hours ago,53 days ago,61 days ago,63 days ago,67 days ago,215 days ago,229 days ago,229 days ago,231 days ago,250 days ago,255 days ago,256 days ago,257 days ago,263 days ago,265 days ago,272 days ago,278 days ago,278 days ago,286 days ago,347 days ago,362 days ago,369 days ago,384 days ago,392 days ago,392 days ago,397 days ago,413 days ago,453 days ago,458 days ago,487 days ago,539 days ago,605 days ago,614 days ago,619 days ago,621 days ago,621 days ago,621 days ago,642 days ago,647 days ago,647 days ago,676 days ago,717 days ago,717 days ago,753 days ago,760 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,812 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,53 days ago,61 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,231 days ago,250 days ago,256 days ago,256 days ago,257 days ago,263 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,347 days ago,362 days ago,370 days ago,385 days ago,393 days ago,393 days ago,397 days ago,414 days ago,453 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,619 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,813 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
+  </si>
+  <si>
+    <t>Mar3,2020</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 1 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
+  </si>
+  <si>
+    <t>3 hours ago,53 days ago,61 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,231 days ago,250 days ago,256 days ago,256 days ago,258 days ago,263 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,453 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,619 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,813 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2266,7 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:2">
@@ -2307,7 +2322,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2323,7 +2338,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2371,7 +2386,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2379,7 +2394,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2459,7 +2474,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2475,7 +2490,7 @@
         <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2483,7 +2498,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2491,7 +2506,7 @@
         <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2555,7 +2570,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2659,7 +2674,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="20490"/>
+    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="19935"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
@@ -20,12 +20,12 @@
     <sheet name="WebServices" r:id="rId11" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A3:G12"/>
+  <oleSize ref="B1:H10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="298">
   <si>
     <t>Validation Data</t>
   </si>
@@ -880,205 +880,61 @@
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>4 hours ago,45 days ago,53 days ago,55 days ago,59 days ago,207 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,450 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,639 days ago,639 days ago,668 days ago,709 days ago,709 days ago,745 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
+    <t>1 hour ago,53 days ago,62 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,232 days ago,251 days ago,256 days ago,256 days ago,258 days ago,264 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,777 days ago,778 days ago,781 days ago,810 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
+  </si>
+  <si>
+    <t>rgba(34, 34, 34, 1)</t>
+  </si>
+  <si>
+    <t>List of Test Cases</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 3 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
+  </si>
+  <si>
+    <t>Mar4,2020</t>
+  </si>
+  <si>
+    <t>Status Title</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>Download Message</t>
+  </si>
+  <si>
+    <t>Product Text</t>
+  </si>
+  <si>
+    <t>Component Text</t>
+  </si>
+  <si>
+    <t>Testcase Text</t>
+  </si>
+  <si>
+    <t>Pass Percent Text</t>
+  </si>
+  <si>
+    <t>Last Run Text</t>
+  </si>
+  <si>
+    <t>RUN IN - 9 secs</t>
+  </si>
+  <si>
+    <t>4 hours ago,54 days ago,62 days ago,64 days ago,68 days ago,216 days ago,229 days ago,230 days ago,232 days ago,251 days ago,256 days ago,257 days ago,258 days ago,264 days ago,266 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,540 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,643 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
   </si>
   <si>
     <t>rgb(34, 34, 34)</t>
   </si>
   <si>
-    <t>List of Test Cases</t>
-  </si>
-  <si>
-    <t>Feb24,2020</t>
-  </si>
-  <si>
-    <t>Status Title</t>
-  </si>
-  <si>
-    <t>Delete Product</t>
-  </si>
-  <si>
-    <t>Download Message</t>
-  </si>
-  <si>
-    <t>Product Text</t>
-  </si>
-  <si>
-    <t>Component Text</t>
-  </si>
-  <si>
-    <t>Testcase Text</t>
-  </si>
-  <si>
-    <t>Pass Percent Text</t>
-  </si>
-  <si>
-    <t>Last Run Text</t>
-  </si>
-  <si>
-    <t>RUN IN - 8 secs</t>
-  </si>
-  <si>
-    <t>5 hours ago,45 days ago,53 days ago,55 days ago,59 days ago,207 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,639 days ago,639 days ago,668 days ago,709 days ago,709 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
-  </si>
-  <si>
     <t>rgb(244, 67, 54)</t>
   </si>
   <si>
     <t>rgb(103, 58, 183)</t>
   </si>
   <si>
-    <t>RUN IN - 9 secs</t>
-  </si>
-  <si>
-    <t>rgb(0, 150, 136)</t>
-  </si>
-  <si>
-    <t>rgb(33, 150, 243)</t>
-  </si>
-  <si>
-    <t>5 hours ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,247 days ago,248 days ago,249 days ago,255 days ago,257 days ago,264 days ago,270 days ago,270 days ago,278 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,405 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,606 days ago,611 days ago,613 days ago,613 days ago,613 days ago,634 days ago,640 days ago,640 days ago,669 days ago,709 days ago,709 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
-  </si>
-  <si>
-    <t>56 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,270 days ago,270 days ago,279 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,384 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,613 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,752 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
-  </si>
-  <si>
-    <t>rgba(34, 34, 34, 1)</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,270 days ago,270 days ago,279 days ago,339 days ago,354 days ago,361 days ago,376 days ago,384 days ago,385 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,223 days ago,242 days ago,248 days ago,248 days ago,249 days ago,255 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,339 days ago,354 days ago,361 days ago,377 days ago,385 days ago,385 days ago,389 days ago,406 days ago,445 days ago,451 days ago,479 days ago,531 days ago,597 days ago,607 days ago,611 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,768 days ago,769 days ago,773 days ago,802 days ago,804 days ago,810 days ago,818 days ago,829 days ago,843 days ago</t>
-  </si>
-  <si>
-    <t>39 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,810 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>52 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>55 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>58 minutes ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,445 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,53 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,221 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,769 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,770 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,768 days ago,769 days ago,770 days ago,773 days ago,802 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,45 days ago,54 days ago,55 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,45 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,46 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,248 days ago,250 days ago,256 days ago,257 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,531 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,634 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,773 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,46 days ago,54 days ago,56 days ago,60 days ago,208 days ago,221 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,451 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,640 days ago,640 days ago,669 days ago,710 days ago,710 days ago,746 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,208 days ago,222 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,641 days ago,641 days ago,670 days ago,710 days ago,710 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>Feb25,2020</t>
-  </si>
-  <si>
-    <t>5 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,248 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,279 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,614 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>5 minutes ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,265 days ago,271 days ago,271 days ago,280 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,614 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>30 minutes ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,266 days ago,271 days ago,271 days ago,280 days ago,340 days ago,355 days ago,362 days ago,377 days ago,385 days ago,385 days ago,390 days ago,406 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,607 days ago,612 days ago,614 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,753 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,250 days ago,256 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,340 days ago,355 days ago,362 days ago,378 days ago,386 days ago,386 days ago,390 days ago,407 days ago,446 days ago,452 days ago,480 days ago,532 days ago,598 days ago,608 days ago,612 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,805 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,46 days ago,54 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,224 days ago,243 days ago,249 days ago,249 days ago,251 days ago,256 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,446 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,769 days ago,770 days ago,774 days ago,803 days ago,806 days ago,811 days ago,819 days ago,830 days ago,844 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,46 days ago,55 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,770 days ago,770 days ago,774 days ago,803 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,46 days ago,55 days ago,56 days ago,61 days ago,209 days ago,222 days ago,222 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,532 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,769 days ago,770 days ago,771 days ago,774 days ago,803 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>Feb26,2020</t>
-  </si>
-  <si>
-    <t>2 hours ago,47 days ago,55 days ago,57 days ago,61 days ago,209 days ago,222 days ago,223 days ago,225 days ago,244 days ago,249 days ago,249 days ago,251 days ago,257 days ago,258 days ago,266 days ago,272 days ago,272 days ago,280 days ago,341 days ago,356 days ago,363 days ago,378 days ago,386 days ago,386 days ago,391 days ago,407 days ago,447 days ago,452 days ago,481 days ago,533 days ago,599 days ago,608 days ago,613 days ago,615 days ago,615 days ago,615 days ago,635 days ago,641 days ago,641 days ago,670 days ago,711 days ago,711 days ago,747 days ago,754 days ago,770 days ago,770 days ago,771 days ago,774 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,272 days ago,272 days ago,281 days ago,341 days ago,356 days ago,363 days ago,378 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,272 days ago,272 days ago,281 days ago,341 days ago,356 days ago,363 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,341 days ago,356 days ago,363 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,806 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,251 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,341 days ago,356 days ago,364 days ago,379 days ago,387 days ago,387 days ago,391 days ago,408 days ago,447 days ago,453 days ago,481 days ago,533 days ago,599 days ago,609 days ago,613 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,807 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,47 days ago,55 days ago,57 days ago,62 days ago,210 days ago,223 days ago,223 days ago,225 days ago,244 days ago,250 days ago,250 days ago,252 days ago,257 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,447 days ago,453 days ago,482 days ago,533 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,770 days ago,770 days ago,771 days ago,775 days ago,804 days ago,807 days ago,812 days ago,820 days ago,831 days ago,845 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,48 days ago,56 days ago,58 days ago,62 days ago,210 days ago,223 days ago,224 days ago,226 days ago,245 days ago,250 days ago,250 days ago,252 days ago,258 days ago,259 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,453 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,636 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,748 days ago,755 days ago,771 days ago,771 days ago,772 days ago,775 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
-  </si>
-  <si>
-    <t>4 hours ago,48 days ago,56 days ago,58 days ago,62 days ago,210 days ago,224 days ago,224 days ago,226 days ago,245 days ago,250 days ago,251 days ago,252 days ago,258 days ago,260 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,454 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,637 days ago,642 days ago,642 days ago,671 days ago,712 days ago,712 days ago,749 days ago,755 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,210 days ago,224 days ago,224 days ago,226 days ago,245 days ago,250 days ago,251 days ago,252 days ago,258 days ago,260 days ago,267 days ago,273 days ago,273 days ago,281 days ago,342 days ago,357 days ago,364 days ago,379 days ago,387 days ago,387 days ago,392 days ago,408 days ago,448 days ago,454 days ago,482 days ago,534 days ago,600 days ago,609 days ago,614 days ago,616 days ago,616 days ago,616 days ago,637 days ago,643 days ago,643 days ago,671 days ago,712 days ago,712 days ago,749 days ago,755 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,807 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,245 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,246 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,846 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,226 days ago,246 days ago,251 days ago,251 days ago,253 days ago,258 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,821 days ago,832 days ago,847 days ago</t>
-  </si>
-  <si>
-    <t>24 minutes ago,48 days ago,56 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,227 days ago,246 days ago,251 days ago,251 days ago,253 days ago,259 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,448 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,771 days ago,772 days ago,776 days ago,805 days ago,808 days ago,813 days ago,822 days ago,833 days ago,847 days ago</t>
-  </si>
-  <si>
-    <t>Feb28,2020</t>
-  </si>
-  <si>
-    <t>1 hour ago,48 days ago,57 days ago,58 days ago,63 days ago,211 days ago,224 days ago,224 days ago,227 days ago,246 days ago,251 days ago,251 days ago,253 days ago,259 days ago,260 days ago,268 days ago,274 days ago,274 days ago,282 days ago,343 days ago,358 days ago,365 days ago,380 days ago,388 days ago,388 days ago,393 days ago,409 days ago,449 days ago,454 days ago,483 days ago,534 days ago,601 days ago,610 days ago,615 days ago,617 days ago,617 days ago,617 days ago,637 days ago,643 days ago,643 days ago,672 days ago,713 days ago,713 days ago,749 days ago,756 days ago,771 days ago,772 days ago,772 days ago,776 days ago,805 days ago,808 days ago,814 days ago,822 days ago,833 days ago,847 days ago</t>
-  </si>
-  <si>
-    <t>4 hours ago,53 days ago,61 days ago,63 days ago,67 days ago,215 days ago,229 days ago,229 days ago,231 days ago,250 days ago,255 days ago,256 days ago,257 days ago,263 days ago,265 days ago,272 days ago,278 days ago,278 days ago,286 days ago,347 days ago,362 days ago,369 days ago,384 days ago,392 days ago,392 days ago,397 days ago,413 days ago,453 days ago,458 days ago,487 days ago,539 days ago,605 days ago,614 days ago,619 days ago,621 days ago,621 days ago,621 days ago,642 days ago,647 days ago,647 days ago,676 days ago,717 days ago,717 days ago,753 days ago,760 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,812 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,53 days ago,61 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,231 days ago,250 days ago,256 days ago,256 days ago,257 days ago,263 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,347 days ago,362 days ago,370 days ago,385 days ago,393 days ago,393 days ago,397 days ago,414 days ago,453 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,619 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,813 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
-  </si>
-  <si>
-    <t>Mar3,2020</t>
-  </si>
-  <si>
-    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 1 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
-  </si>
-  <si>
-    <t>3 hours ago,53 days ago,61 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,231 days ago,250 days ago,256 days ago,256 days ago,258 days ago,263 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,453 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,619 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,776 days ago,777 days ago,781 days ago,810 days ago,813 days ago,818 days ago,826 days ago,837 days ago,851 days ago</t>
+    <t>4 hours ago,54 days ago,62 days ago,64 days ago,68 days ago,216 days ago,230 days ago,230 days ago,232 days ago,251 days ago,256 days ago,257 days ago,258 days ago,264 days ago,266 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,540 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,643 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
   </si>
 </sst>
 </file>
@@ -1086,11 +942,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1135,6 +991,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1142,7 +1005,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,8 +1033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,7 +1043,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,13 +1073,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1217,46 +1081,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,6 +1099,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,13 +1155,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,43 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1209,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1269,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,73 +1323,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,6 +1379,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1545,6 +1410,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1555,6 +1435,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1573,195 +1473,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="11" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="22" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="18" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="14" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="14" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="24" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,7 +1640,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -2217,8 +2073,8 @@
   <sheetPr/>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2266,7 +2122,7 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:2">
@@ -2322,7 +2178,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2338,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2346,7 +2202,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2386,7 +2242,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2394,7 +2250,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2455,7 +2311,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2474,7 +2330,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2482,7 +2338,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2490,7 +2346,7 @@
         <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2503,15 +2359,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
@@ -2519,7 +2375,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
         <v>214</v>
@@ -2527,7 +2383,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
         <v>215</v>
@@ -2535,7 +2391,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s">
         <v>217</v>
@@ -2543,7 +2399,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
         <v>219</v>
@@ -2551,7 +2407,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s">
         <v>220</v>
@@ -2570,7 +2426,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2626,7 +2482,7 @@
         <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2634,7 +2490,7 @@
         <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2674,7 +2530,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2694,6 +2550,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="310">
   <si>
     <t>Validation Data</t>
   </si>
@@ -935,6 +935,42 @@
   </si>
   <si>
     <t>4 hours ago,54 days ago,62 days ago,64 days ago,68 days ago,216 days ago,230 days ago,230 days ago,232 days ago,251 days ago,256 days ago,257 days ago,258 days ago,264 days ago,266 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,540 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,643 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
+  </si>
+  <si>
+    <t>37 minutes ago,54 days ago,62 days ago,64 days ago,69 days ago,217 days ago,230 days ago,230 days ago,232 days ago,251 days ago,257 days ago,257 days ago,258 days ago,264 days ago,266 days ago,274 days ago,279 days ago,279 days ago,288 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,460 days ago,488 days ago,540 days ago,606 days ago,616 days ago,620 days ago,622 days ago,623 days ago,623 days ago,643 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
+  </si>
+  <si>
+    <t>Mar5,2020</t>
+  </si>
+  <si>
+    <t>RUN IN - 8 secs</t>
+  </si>
+  <si>
+    <t>2 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,230 days ago,231 days ago,233 days ago,252 days ago,257 days ago,257 days ago,259 days ago,265 days ago,266 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,460 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,643 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,762 days ago,778 days ago,778 days ago,779 days ago,782 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>rgb(33, 150, 243)</t>
+  </si>
+  <si>
+    <t>4 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,460 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>rgb(0, 150, 136)</t>
+  </si>
+  <si>
+    <t>4 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,678 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,679 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,258 days ago,258 days ago,259 days ago,265 days ago,267 days ago,275 days ago,280 days ago,280 days ago,289 days ago,349 days ago,364 days ago,371 days ago,386 days ago,395 days ago,395 days ago,399 days ago,416 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,617 days ago,621 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2214,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2242,7 +2278,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2250,7 +2286,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2490,7 +2526,7 @@
         <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2530,7 +2566,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="318">
   <si>
     <t>Validation Data</t>
   </si>
@@ -971,6 +971,30 @@
   </si>
   <si>
     <t>1 hour ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,258 days ago,258 days ago,259 days ago,265 days ago,267 days ago,275 days ago,280 days ago,280 days ago,289 days ago,349 days ago,364 days ago,371 days ago,386 days ago,395 days ago,395 days ago,399 days ago,416 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,617 days ago,621 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,258 days ago,258 days ago,259 days ago,265 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,349 days ago,364 days ago,371 days ago,387 days ago,395 days ago,395 days ago,399 days ago,416 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,617 days ago,621 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,779 days ago,779 days ago,783 days ago,812 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,55 days ago,64 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,779 days ago,779 days ago,783 days ago,812 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>Mar6,2020</t>
+  </si>
+  <si>
+    <t>2 hours ago,55 days ago,64 days ago,65 days ago,70 days ago,218 days ago,231 days ago,232 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,779 days ago,779 days ago,780 days ago,783 days ago,813 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,260 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,350 days ago,365 days ago,373 days ago,388 days ago,396 days ago,396 days ago,400 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,608 days ago,618 days ago,622 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,260 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,350 days ago,365 days ago,373 days ago,388 days ago,396 days ago,396 days ago,400 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,609 days ago,618 days ago,622 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,261 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,351 days ago,366 days ago,373 days ago,388 days ago,396 days ago,396 days ago,401 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,609 days ago,618 days ago,623 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2238,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2286,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2462,7 +2486,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2566,7 +2590,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="336">
   <si>
     <t>Validation Data</t>
   </si>
@@ -995,6 +995,60 @@
   </si>
   <si>
     <t>3 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,261 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,351 days ago,366 days ago,373 days ago,388 days ago,396 days ago,396 days ago,401 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,609 days ago,618 days ago,623 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
+  </si>
+  <si>
+    <t>57 minutes ago,58 days ago,66 days ago,68 days ago,73 days ago,221 days ago,234 days ago,234 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,458 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,782 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,234 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,782 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,783 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,786 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,58 days ago,67 days ago,69 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,786 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>3 hours ago,59 days ago,67 days ago,69 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>Mar9,2020</t>
+  </si>
+  <si>
+    <t>4 hours ago,59 days ago,67 days ago,69 days ago,73 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,654 days ago,654 days ago,683 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>16 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>41 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,627 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,627 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,353 days ago,368 days ago,375 days ago,391 days ago,399 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,353 days ago,368 days ago,376 days ago,391 days ago,399 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
+  </si>
+  <si>
+    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 1 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2236,7 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:2">
@@ -2238,7 +2292,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2254,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2262,7 +2316,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2302,7 +2356,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2310,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2590,7 +2644,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="344">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1049,6 +1049,30 @@
   </si>
   <si>
     <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 1 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
+  </si>
+  <si>
+    <t>11 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>14 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>38 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>39 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,59 days ago,68 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,59 days ago,68 days ago,69 days ago,74 days ago,222 days ago,235 days ago,236 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,784 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>Mar10,2020</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2260,7 @@
         <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:2">
@@ -2292,7 +2316,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2308,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2316,7 +2340,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2356,7 +2380,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2364,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2452,7 +2476,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2540,7 +2564,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2644,7 +2668,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="355">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1073,6 +1073,39 @@
   </si>
   <si>
     <t>Mar10,2020</t>
+  </si>
+  <si>
+    <t>3 hours ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,238 days ago,257 days ago,263 days ago,263 days ago,265 days ago,270 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,354 days ago,369 days ago,377 days ago,392 days ago,400 days ago,400 days ago,404 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,626 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,783 days ago,784 days ago,788 days ago,817 days ago,820 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
+  </si>
+  <si>
+    <t>41 minutes ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,239 days ago,258 days ago,263 days ago,263 days ago,265 days ago,271 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,784 days ago,784 days ago,788 days ago,817 days ago,820 days ago,825 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>Mar11,2020</t>
+  </si>
+  <si>
+    <t>48 minutes ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,239 days ago,258 days ago,263 days ago,263 days ago,265 days ago,271 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,784 days ago,784 days ago,788 days ago,817 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,61 days ago,69 days ago,71 days ago,75 days ago,223 days ago,237 days ago,237 days ago,239 days ago,258 days ago,263 days ago,264 days ago,265 days ago,271 days ago,273 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,650 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,263 days ago,264 days ago,265 days ago,271 days ago,273 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>23 minutes ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,286 days ago,286 days ago,295 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,286 days ago,286 days ago,295 days ago,355 days ago,370 days ago,377 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,377 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,378 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,496 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,821 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,378 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,496 days ago,547 days ago,614 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,821 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2349,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2388,7 +2421,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2564,7 +2597,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2668,7 +2701,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="363">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1106,6 +1106,30 @@
   </si>
   <si>
     <t>2 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,378 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,496 days ago,547 days ago,614 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,821 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,61 days ago,70 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,240 days ago,259 days ago,264 days ago,264 days ago,266 days ago,272 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,467 days ago,496 days ago,547 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,785 days ago,785 days ago,789 days ago,818 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>Mar12,2020</t>
+  </si>
+  <si>
+    <t>5 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,224 days ago,238 days ago,238 days ago,240 days ago,259 days ago,264 days ago,265 days ago,266 days ago,272 days ago,274 days ago,281 days ago,287 days ago,287 days ago,295 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,630 days ago,651 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,281 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>10 minutes ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,630 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,288 days ago,288 days ago,296 days ago,356 days ago,371 days ago,378 days ago,394 days ago,402 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,631 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,770 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>2 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,288 days ago,288 days ago,296 days ago,356 days ago,371 days ago,378 days ago,394 days ago,402 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,631 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,770 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2373,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2381,7 +2405,7 @@
         <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2421,7 +2445,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2501,7 +2525,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2509,7 +2533,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2525,7 +2549,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2533,7 +2557,7 @@
         <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2597,7 +2621,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2701,7 +2725,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="366">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1130,6 +1130,15 @@
   </si>
   <si>
     <t>2 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,288 days ago,288 days ago,296 days ago,356 days ago,371 days ago,378 days ago,394 days ago,402 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,631 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,770 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
+  </si>
+  <si>
+    <t>Mar13,2020</t>
+  </si>
+  <si>
+    <t>5 hours ago,63 days ago,71 days ago,73 days ago,78 days ago,226 days ago,239 days ago,239 days ago,241 days ago,260 days ago,265 days ago,266 days ago,267 days ago,273 days ago,275 days ago,282 days ago,288 days ago,288 days ago,296 days ago,357 days ago,372 days ago,379 days ago,394 days ago,402 days ago,402 days ago,407 days ago,423 days ago,463 days ago,469 days ago,497 days ago,549 days ago,615 days ago,624 days ago,629 days ago,631 days ago,631 days ago,631 days ago,652 days ago,658 days ago,658 days ago,687 days ago,727 days ago,727 days ago,764 days ago,770 days ago,786 days ago,786 days ago,787 days ago,791 days ago,820 days ago,822 days ago,828 days ago,836 days ago,847 days ago,861 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,63 days ago,71 days ago,73 days ago,78 days ago,226 days ago,239 days ago,239 days ago,241 days ago,260 days ago,266 days ago,266 days ago,267 days ago,273 days ago,275 days ago,283 days ago,288 days ago,288 days ago,297 days ago,357 days ago,372 days ago,379 days ago,395 days ago,403 days ago,403 days ago,407 days ago,424 days ago,463 days ago,469 days ago,497 days ago,549 days ago,615 days ago,625 days ago,629 days ago,632 days ago,632 days ago,632 days ago,652 days ago,658 days ago,658 days ago,687 days ago,728 days ago,728 days ago,764 days ago,771 days ago,786 days ago,786 days ago,787 days ago,791 days ago,820 days ago,822 days ago,828 days ago,836 days ago,847 days ago,861 days ago</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2382,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2405,7 +2414,7 @@
         <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2445,7 +2454,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2525,7 +2534,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2533,7 +2542,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2549,7 +2558,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2557,7 +2566,7 @@
         <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="380">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1139,6 +1139,48 @@
   </si>
   <si>
     <t>1 hour ago,63 days ago,71 days ago,73 days ago,78 days ago,226 days ago,239 days ago,239 days ago,241 days ago,260 days ago,266 days ago,266 days ago,267 days ago,273 days ago,275 days ago,283 days ago,288 days ago,288 days ago,297 days ago,357 days ago,372 days ago,379 days ago,395 days ago,403 days ago,403 days ago,407 days ago,424 days ago,463 days ago,469 days ago,497 days ago,549 days ago,615 days ago,625 days ago,629 days ago,632 days ago,632 days ago,632 days ago,652 days ago,658 days ago,658 days ago,687 days ago,728 days ago,728 days ago,764 days ago,771 days ago,786 days ago,786 days ago,787 days ago,791 days ago,820 days ago,822 days ago,828 days ago,836 days ago,847 days ago,861 days ago</t>
+  </si>
+  <si>
+    <t>49 minutes ago,65 days ago,73 days ago,75 days ago,80 days ago,228 days ago,241 days ago,241 days ago,244 days ago,263 days ago,268 days ago,268 days ago,270 days ago,276 days ago,277 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,465 days ago,471 days ago,500 days ago,551 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,654 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,788 days ago,789 days ago,789 days ago,793 days ago,822 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>Mar16,2020</t>
+  </si>
+  <si>
+    <t>xpath://div[@class='tooltip-inner ng-binding']</t>
+  </si>
+  <si>
+    <t>1 hour ago,65 days ago,74 days ago,75 days ago,80 days ago,228 days ago,241 days ago,242 days ago,244 days ago,263 days ago,268 days ago,268 days ago,270 days ago,276 days ago,277 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,551 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,654 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,788 days ago,789 days ago,790 days ago,793 days ago,822 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>xpath://select[@name='status']/option[4]</t>
+  </si>
+  <si>
+    <t>xpath:(//h4[@class='mt0 ng-binding'])[1]</t>
+  </si>
+  <si>
+    <t>xpath:(//h4[@class='mt0 ng-binding'])[2]</t>
+  </si>
+  <si>
+    <t>4 hours ago,66 days ago,74 days ago,76 days ago,80 days ago,228 days ago,241 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>4 hours ago,66 days ago,74 days ago,76 days ago,80 days ago,228 days ago,242 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>5 hours ago,66 days ago,74 days ago,76 days ago,81 days ago,228 days ago,242 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,661 days ago,661 days ago,689 days ago,730 days ago,730 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>17 minutes ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>41 minutes ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,634 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,406 days ago,410 days ago,427 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,635 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+  </si>
+  <si>
+    <t>1 hour ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,292 days ago,292 days ago,300 days ago,360 days ago,375 days ago,382 days ago,398 days ago,406 days ago,406 days ago,410 days ago,427 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,635 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2424,7 @@
         <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2454,7 +2496,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2534,7 +2576,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2542,7 +2584,7 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2630,7 +2672,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="304">
   <si>
     <t>Validation Data</t>
   </si>
@@ -877,10 +877,16 @@
     <t>Products Texts</t>
   </si>
   <si>
+    <t>REST API TEST RESULT,UI WEB TEST RESULT,HeatClinicCucumber,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo41,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+  </si>
+  <si>
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>1 hour ago,53 days ago,62 days ago,63 days ago,68 days ago,216 days ago,229 days ago,229 days ago,232 days ago,251 days ago,256 days ago,256 days ago,258 days ago,264 days ago,265 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,539 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,642 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,776 days ago,777 days ago,778 days ago,781 days ago,810 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
+    <t>2 hours ago,2 hours ago,19 hours ago,67 days ago,75 days ago,77 days ago,81 days ago,229 days ago,243 days ago,243 days ago,245 days ago,264 days ago,269 days ago,270 days ago,271 days ago,277 days ago,279 days ago,286 days ago,292 days ago,292 days ago,300 days ago,376 days ago,383 days ago,398 days ago,406 days ago,406 days ago,411 days ago,427 days ago,467 days ago,472 days ago,501 days ago,553 days ago,619 days ago,628 days ago,633 days ago,635 days ago,635 days ago,635 days ago,656 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,790 days ago,790 days ago,791 days ago,795 days ago,824 days ago,826 days ago,832 days ago,840 days ago,851 days ago,865 days ago</t>
+  </si>
+  <si>
+    <t>10,4,1,1,2,2,1,1,4,10,2,12,1,1,4,1,1,0,2,2,1,4,0,1,6,6,6,4,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
@@ -889,15 +895,24 @@
     <t>List of Test Cases</t>
   </si>
   <si>
-    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 3 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
-  </si>
-  <si>
-    <t>Mar4,2020</t>
+    <t>invalidLogin 12 Sec Fail,register 7 Sec Pass,traverseTheLinks 22 Sec Pass,validLogin 13 Sec Fail</t>
+  </si>
+  <si>
+    <t>Mar17,2020</t>
   </si>
   <si>
     <t>Status Title</t>
   </si>
   <si>
+    <t>org.openqa.selenium.TimeoutException: Timed out after 10 seconds waiting for visibility of element located by By.xpath: //a[@class='my-account'] Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.vAUkx4}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: 3d76533404c42ac9104167c1afb00584 at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:80) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:261) at com.atmecs.falcon.automation.ui.selenium.WaitElement.waitFor(WaitElement.java:90) at com.atmecs.testscript.LoginInvalidTestScript.accountLogin(LoginInvalidTestScript.java:86) at com.atmecs.testscript.LoginInvalidTestScript.invalidLogin(LoginInvalidTestScript.java:67) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at com.atmecs.runner.TestNGRunner.main(TestNGRunner.java:74) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748) Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='my-account']"} (Session info: chrome=69.0.3497.100) (Driver info: chromedriver=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7),platform=Linux 4.15.0-34-generic x86_64) (WARNING: The server did not provide any stacktrace information) Command duration or timeout: 11 milliseconds For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.vAUkx4}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: 3d76533404c42ac9104167c1afb00584 *** Element info: {Using=xpath, value=//a[@class='my-account']} at sun.reflect.GeneratedConstructorAccessor32.newInstance(Unknown Source) at sun.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45) at java.lang.reflect.Constructor.newInstance(Constructor.java:423) at org.openqa.selenium.remote.ErrorHandler.createThrowable(ErrorHandler.java:206) at org.openqa.selenium.remote.ErrorHandler.throwIfResponseFailed(ErrorHandler.java:158) at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:678) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:363) at org.openqa.selenium.remote.RemoteWebDriver.findElementByXPath(RemoteWebDriver.java:500) at org.openqa.selenium.By$ByXPath.findElement(By.java:361) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:355) at org.openqa.selenium.support.ui.ExpectedConditions.findElement(ExpectedConditions.java:899) at org.openqa.selenium.support.ui.ExpectedConditions.access$000(ExpectedConditions.java:41) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:205) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:201) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:238) ... 31 more</t>
+  </si>
+  <si>
+    <t>rgb(103, 58, 183)</t>
+  </si>
+  <si>
+    <t>rgb(244, 67, 54)</t>
+  </si>
+  <si>
     <t>Delete Product</t>
   </si>
   <si>
@@ -919,268 +934,25 @@
     <t>Last Run Text</t>
   </si>
   <si>
-    <t>RUN IN - 9 secs</t>
-  </si>
-  <si>
-    <t>4 hours ago,54 days ago,62 days ago,64 days ago,68 days ago,216 days ago,229 days ago,230 days ago,232 days ago,251 days ago,256 days ago,257 days ago,258 days ago,264 days ago,266 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,540 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,643 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
-  </si>
-  <si>
-    <t>rgb(34, 34, 34)</t>
-  </si>
-  <si>
-    <t>rgb(244, 67, 54)</t>
-  </si>
-  <si>
-    <t>rgb(103, 58, 183)</t>
-  </si>
-  <si>
-    <t>4 hours ago,54 days ago,62 days ago,64 days ago,68 days ago,216 days ago,230 days ago,230 days ago,232 days ago,251 days ago,256 days ago,257 days ago,258 days ago,264 days ago,266 days ago,273 days ago,279 days ago,279 days ago,287 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,459 days ago,488 days ago,540 days ago,606 days ago,615 days ago,620 days ago,622 days ago,622 days ago,622 days ago,643 days ago,648 days ago,648 days ago,677 days ago,718 days ago,718 days ago,754 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
-  </si>
-  <si>
-    <t>37 minutes ago,54 days ago,62 days ago,64 days ago,69 days ago,217 days ago,230 days ago,230 days ago,232 days ago,251 days ago,257 days ago,257 days ago,258 days ago,264 days ago,266 days ago,274 days ago,279 days ago,279 days ago,288 days ago,348 days ago,363 days ago,370 days ago,385 days ago,393 days ago,393 days ago,398 days ago,414 days ago,454 days ago,460 days ago,488 days ago,540 days ago,606 days ago,616 days ago,620 days ago,622 days ago,623 days ago,623 days ago,643 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,761 days ago,777 days ago,777 days ago,778 days ago,782 days ago,811 days ago,813 days ago,819 days ago,827 days ago,838 days ago,852 days ago</t>
-  </si>
-  <si>
-    <t>Mar5,2020</t>
-  </si>
-  <si>
-    <t>RUN IN - 8 secs</t>
-  </si>
-  <si>
-    <t>2 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,230 days ago,231 days ago,233 days ago,252 days ago,257 days ago,257 days ago,259 days ago,265 days ago,266 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,460 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,643 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,762 days ago,778 days ago,778 days ago,779 days ago,782 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>rgb(33, 150, 243)</t>
-  </si>
-  <si>
-    <t>4 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,460 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,755 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>rgb(0, 150, 136)</t>
-  </si>
-  <si>
-    <t>4 hours ago,55 days ago,63 days ago,65 days ago,69 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,649 days ago,649 days ago,678 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,217 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,678 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,679 days ago,719 days ago,719 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,257 days ago,258 days ago,259 days ago,265 days ago,267 days ago,274 days ago,280 days ago,280 days ago,288 days ago,349 days ago,364 days ago,371 days ago,386 days ago,394 days ago,394 days ago,399 days ago,415 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,616 days ago,621 days ago,623 days ago,623 days ago,623 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,762 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,258 days ago,258 days ago,259 days ago,265 days ago,267 days ago,275 days ago,280 days ago,280 days ago,289 days ago,349 days ago,364 days ago,371 days ago,386 days ago,395 days ago,395 days ago,399 days ago,416 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,617 days ago,621 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,233 days ago,252 days ago,258 days ago,258 days ago,259 days ago,265 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,349 days ago,364 days ago,371 days ago,387 days ago,395 days ago,395 days ago,399 days ago,416 days ago,455 days ago,461 days ago,489 days ago,541 days ago,607 days ago,617 days ago,621 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,778 days ago,779 days ago,783 days ago,812 days ago,814 days ago,820 days ago,828 days ago,839 days ago,853 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,55 days ago,63 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,779 days ago,779 days ago,783 days ago,812 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,55 days ago,64 days ago,65 days ago,70 days ago,218 days ago,231 days ago,231 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,778 days ago,779 days ago,779 days ago,783 days ago,812 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>Mar6,2020</t>
-  </si>
-  <si>
-    <t>2 hours ago,55 days ago,64 days ago,65 days ago,70 days ago,218 days ago,231 days ago,232 days ago,234 days ago,253 days ago,258 days ago,258 days ago,260 days ago,266 days ago,267 days ago,275 days ago,281 days ago,281 days ago,289 days ago,350 days ago,365 days ago,372 days ago,387 days ago,395 days ago,395 days ago,400 days ago,416 days ago,456 days ago,461 days ago,490 days ago,541 days ago,608 days ago,617 days ago,622 days ago,624 days ago,624 days ago,624 days ago,644 days ago,650 days ago,650 days ago,679 days ago,720 days ago,720 days ago,756 days ago,763 days ago,779 days ago,779 days ago,780 days ago,783 days ago,813 days ago,815 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,260 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,350 days ago,365 days ago,373 days ago,388 days ago,396 days ago,396 days ago,400 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,608 days ago,618 days ago,622 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,260 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,350 days ago,365 days ago,373 days ago,388 days ago,396 days ago,396 days ago,400 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,609 days ago,618 days ago,622 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,56 days ago,64 days ago,66 days ago,71 days ago,219 days ago,232 days ago,232 days ago,234 days ago,253 days ago,259 days ago,259 days ago,261 days ago,266 days ago,268 days ago,276 days ago,282 days ago,282 days ago,290 days ago,351 days ago,366 days ago,373 days ago,388 days ago,396 days ago,396 days ago,401 days ago,417 days ago,456 days ago,462 days ago,491 days ago,542 days ago,609 days ago,618 days ago,623 days ago,625 days ago,625 days ago,625 days ago,645 days ago,651 days ago,651 days ago,680 days ago,721 days ago,721 days ago,757 days ago,764 days ago,779 days ago,779 days ago,780 days ago,784 days ago,813 days ago,816 days ago,821 days ago,829 days ago,840 days ago,854 days ago</t>
-  </si>
-  <si>
-    <t>57 minutes ago,58 days ago,66 days ago,68 days ago,73 days ago,221 days ago,234 days ago,234 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,458 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,782 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,234 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,782 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,781 days ago,782 days ago,783 days ago,786 days ago,815 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,58 days ago,67 days ago,68 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,786 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,58 days ago,67 days ago,69 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,261 days ago,263 days ago,269 days ago,270 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,544 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,647 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,786 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>3 hours ago,59 days ago,67 days ago,69 days ago,73 days ago,221 days ago,234 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,759 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>Mar9,2020</t>
-  </si>
-  <si>
-    <t>4 hours ago,59 days ago,67 days ago,69 days ago,73 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,464 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,653 days ago,653 days ago,682 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,221 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,627 days ago,648 days ago,654 days ago,654 days ago,683 days ago,723 days ago,723 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,261 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,292 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,278 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>16 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,620 days ago,625 days ago,627 days ago,627 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>41 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,398 days ago,403 days ago,419 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,627 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,766 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,284 days ago,284 days ago,293 days ago,353 days ago,368 days ago,375 days ago,390 days ago,398 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,627 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,353 days ago,368 days ago,375 days ago,391 days ago,399 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,818 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,237 days ago,256 days ago,262 days ago,262 days ago,263 days ago,269 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,353 days ago,368 days ago,376 days ago,391 days ago,399 days ago,399 days ago,403 days ago,420 days ago,459 days ago,465 days ago,493 days ago,545 days ago,611 days ago,621 days ago,625 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,832 days ago,843 days ago,857 days ago</t>
-  </si>
-  <si>
-    <t>deleteProjectApiTest 0 Sec Pass,downloadImageApiTest 0 Sec Pass,exportToExcelApiTest 0 Sec Pass,getDashboardApiTest 1 Sec Pass,invalidLinkApiTest 0 Sec Fail,recentRunsApiTest 0 Sec Pass,reportViewApiTest 0 Sec Pass,uploadImageApiTest 1 Sec Pass,uploadTestngResultFileApiTest 0 Sec Pass,viewReportApiTest 5 Sec Pass</t>
-  </si>
-  <si>
-    <t>11 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>14 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,782 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>38 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>39 minutes ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,459 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,824 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,59 days ago,67 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,59 days ago,68 days ago,69 days ago,74 days ago,222 days ago,235 days ago,235 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,783 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,59 days ago,68 days ago,69 days ago,74 days ago,222 days ago,235 days ago,236 days ago,238 days ago,257 days ago,262 days ago,262 days ago,264 days ago,270 days ago,271 days ago,279 days ago,285 days ago,285 days ago,293 days ago,354 days ago,369 days ago,376 days ago,391 days ago,399 days ago,399 days ago,404 days ago,420 days ago,460 days ago,465 days ago,494 days ago,545 days ago,612 days ago,621 days ago,626 days ago,628 days ago,628 days ago,628 days ago,648 days ago,654 days ago,654 days ago,683 days ago,724 days ago,724 days ago,760 days ago,767 days ago,782 days ago,783 days ago,784 days ago,787 days ago,816 days ago,819 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>Mar10,2020</t>
-  </si>
-  <si>
-    <t>3 hours ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,238 days ago,257 days ago,263 days ago,263 days ago,265 days ago,270 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,354 days ago,369 days ago,377 days ago,392 days ago,400 days ago,400 days ago,404 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,626 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,783 days ago,784 days ago,788 days ago,817 days ago,820 days ago,825 days ago,833 days ago,844 days ago,858 days ago</t>
-  </si>
-  <si>
-    <t>41 minutes ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,239 days ago,258 days ago,263 days ago,263 days ago,265 days ago,271 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,784 days ago,784 days ago,788 days ago,817 days ago,820 days ago,825 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>Mar11,2020</t>
-  </si>
-  <si>
-    <t>48 minutes ago,60 days ago,68 days ago,70 days ago,75 days ago,223 days ago,236 days ago,236 days ago,239 days ago,258 days ago,263 days ago,263 days ago,265 days ago,271 days ago,272 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,460 days ago,466 days ago,495 days ago,546 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,649 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,761 days ago,768 days ago,783 days ago,784 days ago,784 days ago,788 days ago,817 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,61 days ago,69 days ago,71 days ago,75 days ago,223 days ago,237 days ago,237 days ago,239 days ago,258 days ago,263 days ago,264 days ago,265 days ago,271 days ago,273 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,650 days ago,655 days ago,655 days ago,684 days ago,725 days ago,725 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,263 days ago,264 days ago,265 days ago,271 days ago,273 days ago,280 days ago,286 days ago,286 days ago,294 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,629 days ago,629 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>23 minutes ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,286 days ago,286 days ago,295 days ago,355 days ago,370 days ago,377 days ago,392 days ago,400 days ago,400 days ago,405 days ago,421 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,622 days ago,627 days ago,629 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,768 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,286 days ago,286 days ago,295 days ago,355 days ago,370 days ago,377 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,377 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,495 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,820 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,378 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,496 days ago,547 days ago,613 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,821 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,61 days ago,69 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,239 days ago,258 days ago,264 days ago,264 days ago,265 days ago,271 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,355 days ago,370 days ago,378 days ago,393 days ago,401 days ago,401 days ago,405 days ago,422 days ago,461 days ago,467 days ago,496 days ago,547 days ago,614 days ago,623 days ago,627 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,784 days ago,785 days ago,789 days ago,818 days ago,821 days ago,826 days ago,834 days ago,845 days ago,859 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,61 days ago,70 days ago,71 days ago,76 days ago,224 days ago,237 days ago,237 days ago,240 days ago,259 days ago,264 days ago,264 days ago,266 days ago,272 days ago,273 days ago,281 days ago,287 days ago,287 days ago,295 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,467 days ago,496 days ago,547 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,630 days ago,650 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,762 days ago,769 days ago,784 days ago,785 days ago,785 days ago,789 days ago,818 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>Mar12,2020</t>
-  </si>
-  <si>
-    <t>5 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,224 days ago,238 days ago,238 days ago,240 days ago,259 days ago,264 days ago,265 days ago,266 days ago,272 days ago,274 days ago,281 days ago,287 days ago,287 days ago,295 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,630 days ago,651 days ago,656 days ago,656 days ago,685 days ago,726 days ago,726 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,281 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>10 minutes ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,401 days ago,406 days ago,422 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,623 days ago,628 days ago,630 days ago,630 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,287 days ago,287 days ago,296 days ago,356 days ago,371 days ago,378 days ago,393 days ago,401 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,630 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,769 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,288 days ago,288 days ago,296 days ago,356 days ago,371 days ago,378 days ago,394 days ago,402 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,631 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,770 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>2 hours ago,62 days ago,70 days ago,72 days ago,77 days ago,225 days ago,238 days ago,238 days ago,240 days ago,259 days ago,265 days ago,265 days ago,266 days ago,272 days ago,274 days ago,282 days ago,288 days ago,288 days ago,296 days ago,356 days ago,371 days ago,378 days ago,394 days ago,402 days ago,402 days ago,406 days ago,423 days ago,462 days ago,468 days ago,496 days ago,548 days ago,614 days ago,624 days ago,628 days ago,631 days ago,631 days ago,631 days ago,651 days ago,657 days ago,657 days ago,686 days ago,727 days ago,727 days ago,763 days ago,770 days ago,785 days ago,785 days ago,786 days ago,790 days ago,819 days ago,821 days ago,827 days ago,835 days ago,846 days ago,860 days ago</t>
-  </si>
-  <si>
-    <t>Mar13,2020</t>
-  </si>
-  <si>
-    <t>5 hours ago,63 days ago,71 days ago,73 days ago,78 days ago,226 days ago,239 days ago,239 days ago,241 days ago,260 days ago,265 days ago,266 days ago,267 days ago,273 days ago,275 days ago,282 days ago,288 days ago,288 days ago,296 days ago,357 days ago,372 days ago,379 days ago,394 days ago,402 days ago,402 days ago,407 days ago,423 days ago,463 days ago,469 days ago,497 days ago,549 days ago,615 days ago,624 days ago,629 days ago,631 days ago,631 days ago,631 days ago,652 days ago,658 days ago,658 days ago,687 days ago,727 days ago,727 days ago,764 days ago,770 days ago,786 days ago,786 days ago,787 days ago,791 days ago,820 days ago,822 days ago,828 days ago,836 days ago,847 days ago,861 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,63 days ago,71 days ago,73 days ago,78 days ago,226 days ago,239 days ago,239 days ago,241 days ago,260 days ago,266 days ago,266 days ago,267 days ago,273 days ago,275 days ago,283 days ago,288 days ago,288 days ago,297 days ago,357 days ago,372 days ago,379 days ago,395 days ago,403 days ago,403 days ago,407 days ago,424 days ago,463 days ago,469 days ago,497 days ago,549 days ago,615 days ago,625 days ago,629 days ago,632 days ago,632 days ago,632 days ago,652 days ago,658 days ago,658 days ago,687 days ago,728 days ago,728 days ago,764 days ago,771 days ago,786 days ago,786 days ago,787 days ago,791 days ago,820 days ago,822 days ago,828 days ago,836 days ago,847 days ago,861 days ago</t>
-  </si>
-  <si>
-    <t>49 minutes ago,65 days ago,73 days ago,75 days ago,80 days ago,228 days ago,241 days ago,241 days ago,244 days ago,263 days ago,268 days ago,268 days ago,270 days ago,276 days ago,277 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,465 days ago,471 days ago,500 days ago,551 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,654 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,788 days ago,789 days ago,789 days ago,793 days ago,822 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>Mar16,2020</t>
-  </si>
-  <si>
-    <t>xpath://div[@class='tooltip-inner ng-binding']</t>
-  </si>
-  <si>
-    <t>1 hour ago,65 days ago,74 days ago,75 days ago,80 days ago,228 days ago,241 days ago,242 days ago,244 days ago,263 days ago,268 days ago,268 days ago,270 days ago,276 days ago,277 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,551 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,654 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,788 days ago,789 days ago,790 days ago,793 days ago,822 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>xpath://select[@name='status']/option[4]</t>
-  </si>
-  <si>
-    <t>xpath:(//h4[@class='mt0 ng-binding'])[1]</t>
-  </si>
-  <si>
-    <t>xpath:(//h4[@class='mt0 ng-binding'])[2]</t>
-  </si>
-  <si>
-    <t>4 hours ago,66 days ago,74 days ago,76 days ago,80 days ago,228 days ago,241 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>4 hours ago,66 days ago,74 days ago,76 days ago,80 days ago,228 days ago,242 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,471 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,660 days ago,660 days ago,689 days ago,730 days ago,730 days ago,766 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>5 hours ago,66 days ago,74 days ago,76 days ago,81 days ago,228 days ago,242 days ago,242 days ago,244 days ago,263 days ago,268 days ago,269 days ago,270 days ago,276 days ago,278 days ago,285 days ago,291 days ago,291 days ago,299 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,634 days ago,655 days ago,661 days ago,661 days ago,689 days ago,730 days ago,730 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>17 minutes ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,627 days ago,632 days ago,634 days ago,634 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>41 minutes ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,405 days ago,410 days ago,426 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,634 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,773 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,291 days ago,291 days ago,300 days ago,360 days ago,375 days ago,382 days ago,397 days ago,405 days ago,406 days ago,410 days ago,427 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,635 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
-  </si>
-  <si>
-    <t>1 hour ago,66 days ago,74 days ago,76 days ago,81 days ago,229 days ago,242 days ago,242 days ago,244 days ago,263 days ago,269 days ago,269 days ago,270 days ago,276 days ago,278 days ago,286 days ago,292 days ago,292 days ago,300 days ago,360 days ago,375 days ago,382 days ago,398 days ago,406 days ago,406 days ago,410 days ago,427 days ago,466 days ago,472 days ago,500 days ago,552 days ago,618 days ago,628 days ago,632 days ago,635 days ago,635 days ago,635 days ago,655 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,789 days ago,789 days ago,790 days ago,794 days ago,823 days ago,825 days ago,831 days ago,839 days ago,850 days ago,864 days ago</t>
+    <t>4 TEST(S)</t>
+  </si>
+  <si>
+    <t>RUN IN - 55 secs</t>
+  </si>
+  <si>
+    <t>PASS - 50%</t>
+  </si>
+  <si>
+    <t>Clicking Register link</t>
+  </si>
+  <si>
+    <t>1 hour ago,5 hours ago,22 hours ago,67 days ago,75 days ago,77 days ago,82 days ago,230 days ago,243 days ago,243 days ago,245 days ago,264 days ago,270 days ago,270 days ago,271 days ago,277 days ago,279 days ago,287 days ago,292 days ago,292 days ago,301 days ago,376 days ago,383 days ago,399 days ago,407 days ago,407 days ago,411 days ago,428 days ago,467 days ago,473 days ago,501 days ago,553 days ago,619 days ago,629 days ago,633 days ago,636 days ago,636 days ago,636 days ago,656 days ago,662 days ago,662 days ago,691 days ago,732 days ago,732 days ago,768 days ago,775 days ago,790 days ago,790 days ago,791 days ago,795 days ago,824 days ago,826 days ago,832 days ago,840 days ago,851 days ago,865 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WEB </t>
+  </si>
+  <si>
+    <t>xpath:(//a[@class='ng-scope md-ink-ripple'])[3]</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="25">
@@ -1237,13 +1009,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1252,13 +1017,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,17 +1037,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,17 +1052,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,11 +1083,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1358,23 +1130,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1401,7 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,13 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,25 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,13 +1293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,37 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,7 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,8 +1397,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,7 +1407,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,6 +1428,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1670,37 +1457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,151 +1480,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="12" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="23" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="22" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="16" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="18" fontId="18" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="14" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2320,7 +2092,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2416,15 +2188,15 @@
         <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2432,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2448,7 +2220,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2480,15 +2252,15 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2496,7 +2268,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2557,7 +2329,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2568,7 +2340,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2576,7 +2348,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2605,7 +2377,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2613,7 +2385,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
@@ -2621,7 +2393,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
         <v>214</v>
@@ -2629,7 +2401,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s">
         <v>215</v>
@@ -2637,7 +2409,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
         <v>217</v>
@@ -2645,7 +2417,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
         <v>219</v>
@@ -2653,7 +2425,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
         <v>220</v>
@@ -2664,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2672,7 +2444,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2688,7 +2460,7 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2776,7 +2548,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="19935"/>
+    <workbookView windowWidth="19935" windowHeight="7830" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
-    <sheet name="TC04_Product Page" r:id="rId2" sheetId="2"/>
-    <sheet name="TC05_Dropdowns" r:id="rId3" sheetId="3"/>
-    <sheet name="Products" r:id="rId4" sheetId="9"/>
-    <sheet name="TC06_Recent Runs" r:id="rId5" sheetId="4"/>
-    <sheet name="TC07_Main Navigation" r:id="rId6" sheetId="5"/>
-    <sheet name="TC08_Views" r:id="rId7" sheetId="6"/>
-    <sheet name="TC09_StepsOfProduct" r:id="rId8" sheetId="10"/>
-    <sheet name="TC10_TestCases" r:id="rId9" sheetId="11"/>
-    <sheet name="REST API TEST RESULT" r:id="rId10" sheetId="12"/>
-    <sheet name="WebServices" r:id="rId11" sheetId="13"/>
+    <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
+    <sheet name="TC04_Product Page" sheetId="2" r:id="rId2"/>
+    <sheet name="TC05_Dropdowns" sheetId="3" r:id="rId3"/>
+    <sheet name="Products" sheetId="9" r:id="rId4"/>
+    <sheet name="TC06_Recent Runs" sheetId="4" r:id="rId5"/>
+    <sheet name="TC07_Main Navigation" sheetId="5" r:id="rId6"/>
+    <sheet name="TC08_Views" sheetId="6" r:id="rId7"/>
+    <sheet name="TC09_StepsOfProduct" sheetId="10" r:id="rId8"/>
+    <sheet name="TC10_TestCases" sheetId="11" r:id="rId9"/>
+    <sheet name="REST API TEST RESULT" sheetId="12" r:id="rId10"/>
+    <sheet name="WebServices" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B1:H10"/>
+  <oleSize ref="A38:G47"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="308">
   <si>
     <t>Validation Data</t>
   </si>
@@ -874,45 +874,54 @@
     <t>Product Snapshot Text</t>
   </si>
   <si>
+    <t>CucumberDemo</t>
+  </si>
+  <si>
     <t>Products Texts</t>
   </si>
   <si>
-    <t>REST API TEST RESULT,UI WEB TEST RESULT,HeatClinicCucumber,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo41,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
+    <t>REST API TEST RESULT,UI WEB TEST RESULT,CucumberDemo,HeatClinicCucumber,WebServices,FALCON,WebServicesDemo,FalconMobileDemo,ObjectExtractor,SampleFalconAPITest,Falcon,DotComUI_Mobile,MWB,MWB_iOS,JB_Native_App_iOS,Falcon2,Fal,MWB,FalconDemo41,CreditSightsMobile,CHS,CHS,HEATCLINIC RESULT,HEAT CLINIC RESULT,DotComUITablet,HRIS,HRIS_Cloud,HRIS_Local,Falcon,CreditSights,BrowserstackDemo,FalconSampleProj,DotComUITablet,GreyHealthGroup,FluorCorporation,AndroidDemoApp,MWBooking,AutomationDemoClient,APIAutomationDemoClient,APIAutomationClient,FLUOR,Atmecs,CHS,Atmecs,Atmecs,demo,CHS,Atmecs,CHS,TestMobileWeb,TestFalcon_runSessionId,swathi_signup account,Pooja_USAUTOPARTS,USAutoParts,USAutoParts_MUJ,TestMobileWeb_CnameDemo,IOSDemoApp,Mobile_Demo,TestDemoApp,UI BrowserStack Test Result,dbTesting</t>
   </si>
   <si>
     <t>Products Recent Execution time</t>
   </si>
   <si>
-    <t>2 hours ago,2 hours ago,19 hours ago,67 days ago,75 days ago,77 days ago,81 days ago,229 days ago,243 days ago,243 days ago,245 days ago,264 days ago,269 days ago,270 days ago,271 days ago,277 days ago,279 days ago,286 days ago,292 days ago,292 days ago,300 days ago,376 days ago,383 days ago,398 days ago,406 days ago,406 days ago,411 days ago,427 days ago,467 days ago,472 days ago,501 days ago,553 days ago,619 days ago,628 days ago,633 days ago,635 days ago,635 days ago,635 days ago,656 days ago,661 days ago,661 days ago,690 days ago,731 days ago,731 days ago,767 days ago,774 days ago,790 days ago,790 days ago,791 days ago,795 days ago,824 days ago,826 days ago,832 days ago,840 days ago,851 days ago,865 days ago</t>
-  </si>
-  <si>
-    <t>10,4,1,1,2,2,1,1,4,10,2,12,1,1,4,1,1,0,2,2,1,4,0,1,6,6,6,4,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+    <t>38 minutes ago,39 minutes ago,5 hours ago,1 day ago,68 days ago,76 days ago,78 days ago,83 days ago,231 days ago,244 days ago,244 days ago,246 days ago,265 days ago,270 days ago,271 days ago,272 days ago,278 days ago,280 days ago,287 days ago,293 days ago,293 days ago,301 days ago,377 days ago,384 days ago,399 days ago,407 days ago,407 days ago,412 days ago,428 days ago,468 days ago,474 days ago,502 days ago,554 days ago,620 days ago,629 days ago,634 days ago,636 days ago,636 days ago,636 days ago,657 days ago,663 days ago,663 days ago,692 days ago,733 days ago,733 days ago,769 days ago,775 days ago,791 days ago,791 days ago,792 days ago,796 days ago,825 days ago,827 days ago,833 days ago,841 days ago,852 days ago,866 days ago</t>
+  </si>
+  <si>
+    <t>4,2,10,1,1,2,2,1,1,4,10,2,12,1,1,4,1,1,0,2,2,1,4,0,1,6,6,6,4,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
   </si>
   <si>
     <t>rgba(34, 34, 34, 1)</t>
   </si>
   <si>
+    <t xml:space="preserve"> WEB </t>
+  </si>
+  <si>
     <t>List of Test Cases</t>
   </si>
   <si>
-    <t>invalidLogin 12 Sec Fail,register 7 Sec Pass,traverseTheLinks 22 Sec Pass,validLogin 13 Sec Fail</t>
-  </si>
-  <si>
-    <t>Mar17,2020</t>
+    <t>invalidLogin 12 Sec Fail,register 7 Sec Pass,traverseTheLinks 20 Sec Pass,validLogin 33 Sec Pass</t>
+  </si>
+  <si>
+    <t>Mar18,2020</t>
+  </si>
+  <si>
+    <t>loginexcel</t>
   </si>
   <si>
     <t>Status Title</t>
   </si>
   <si>
-    <t>org.openqa.selenium.TimeoutException: Timed out after 10 seconds waiting for visibility of element located by By.xpath: //a[@class='my-account'] Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.vAUkx4}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: 3d76533404c42ac9104167c1afb00584 at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:80) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:261) at com.atmecs.falcon.automation.ui.selenium.WaitElement.waitFor(WaitElement.java:90) at com.atmecs.testscript.LoginInvalidTestScript.accountLogin(LoginInvalidTestScript.java:86) at com.atmecs.testscript.LoginInvalidTestScript.invalidLogin(LoginInvalidTestScript.java:67) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at com.atmecs.runner.TestNGRunner.main(TestNGRunner.java:74) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748) Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='my-account']"} (Session info: chrome=69.0.3497.100) (Driver info: chromedriver=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7),platform=Linux 4.15.0-34-generic x86_64) (WARNING: The server did not provide any stacktrace information) Command duration or timeout: 11 milliseconds For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.vAUkx4}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: 3d76533404c42ac9104167c1afb00584 *** Element info: {Using=xpath, value=//a[@class='my-account']} at sun.reflect.GeneratedConstructorAccessor32.newInstance(Unknown Source) at sun.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45) at java.lang.reflect.Constructor.newInstance(Constructor.java:423) at org.openqa.selenium.remote.ErrorHandler.createThrowable(ErrorHandler.java:206) at org.openqa.selenium.remote.ErrorHandler.throwIfResponseFailed(ErrorHandler.java:158) at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:678) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:363) at org.openqa.selenium.remote.RemoteWebDriver.findElementByXPath(RemoteWebDriver.java:500) at org.openqa.selenium.By$ByXPath.findElement(By.java:361) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:355) at org.openqa.selenium.support.ui.ExpectedConditions.findElement(ExpectedConditions.java:899) at org.openqa.selenium.support.ui.ExpectedConditions.access$000(ExpectedConditions.java:41) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:205) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:201) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:238) ... 31 more</t>
+    <t>Steps - invalidLogin</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.TimeoutException: Timed out after 10 seconds waiting for visibility of element located by By.xpath: //a[@class='my-account'] Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.d5P0Rs}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: df31d84851c2efc58ae36c2ddaab8500 at org.openqa.selenium.support.ui.WebDriverWait.timeoutException(WebDriverWait.java:80) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:261) at com.atmecs.falcon.automation.ui.selenium.WaitElement.waitFor(WaitElement.java:90) at com.atmecs.testscript.LoginInvalidTestScript.accountLogin(LoginInvalidTestScript.java:86) at com.atmecs.testscript.LoginInvalidTestScript.invalidLogin(LoginInvalidTestScript.java:67) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:85) at org.testng.internal.Invoker.invokeMethod(Invoker.java:639) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:816) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1124) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:125) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:108) at org.testng.TestRunner.privateRun(TestRunner.java:774) at org.testng.TestRunner.run(TestRunner.java:624) at org.testng.SuiteRunner.runTest(SuiteRunner.java:359) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:354) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:312) at org.testng.SuiteRunner.run(SuiteRunner.java:261) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at org.testng.TestNG.runSuitesSequentially(TestNG.java:1215) at org.testng.TestNG.runSuitesLocally(TestNG.java:1140) at org.testng.TestNG.run(TestNG.java:1048) at com.atmecs.runner.TestNGRunner.main(TestNGRunner.java:74) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.codehaus.mojo.exec.ExecJavaMojo$1.run(ExecJavaMojo.java:293) at java.lang.Thread.run(Thread.java:748) Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='my-account']"} (Session info: chrome=69.0.3497.100) (Driver info: chromedriver=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7),platform=Linux 4.15.0-34-generic x86_64) (WARNING: The server did not provide any stacktrace information) Command duration or timeout: 11 milliseconds For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09' System info: host: 'ubuntu-virtual-machine', ip: '127.0.1.1', os.name: 'Linux', os.arch: 'amd64', os.version: '4.15.0-34-generic', java.version: '1.8.0_144' Driver info: org.openqa.selenium.chrome.ChromeDriver Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.40.565383 (76257d1ab79276b2d53ee976b2c3e3b9f335cde7), userDataDir=/tmp/.org.chromium.Chromium.d5P0Rs}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=69.0.3497.100, platform=LINUX, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}] Session ID: df31d84851c2efc58ae36c2ddaab8500 *** Element info: {Using=xpath, value=//a[@class='my-account']} at sun.reflect.GeneratedConstructorAccessor32.newInstance(Unknown Source) at sun.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45) at java.lang.reflect.Constructor.newInstance(Constructor.java:423) at org.openqa.selenium.remote.ErrorHandler.createThrowable(ErrorHandler.java:206) at org.openqa.selenium.remote.ErrorHandler.throwIfResponseFailed(ErrorHandler.java:158) at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:678) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:363) at org.openqa.selenium.remote.RemoteWebDriver.findElementByXPath(RemoteWebDriver.java:500) at org.openqa.selenium.By$ByXPath.findElement(By.java:361) at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:355) at org.openqa.selenium.support.ui.ExpectedConditions.findElement(ExpectedConditions.java:899) at org.openqa.selenium.support.ui.ExpectedConditions.access$000(ExpectedConditions.java:41) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:205) at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:201) at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:238) ... 31 more</t>
   </si>
   <si>
     <t>rgb(103, 58, 183)</t>
   </si>
   <si>
-    <t>rgb(244, 67, 54)</t>
-  </si>
-  <si>
     <t>Delete Product</t>
   </si>
   <si>
@@ -937,22 +946,25 @@
     <t>4 TEST(S)</t>
   </si>
   <si>
-    <t>RUN IN - 55 secs</t>
-  </si>
-  <si>
-    <t>PASS - 50%</t>
+    <t>RUN IN - 1 min</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PASS - 75%</t>
   </si>
   <si>
     <t>Clicking Register link</t>
   </si>
   <si>
-    <t>1 hour ago,5 hours ago,22 hours ago,67 days ago,75 days ago,77 days ago,82 days ago,230 days ago,243 days ago,243 days ago,245 days ago,264 days ago,270 days ago,270 days ago,271 days ago,277 days ago,279 days ago,287 days ago,292 days ago,292 days ago,301 days ago,376 days ago,383 days ago,399 days ago,407 days ago,407 days ago,411 days ago,428 days ago,467 days ago,473 days ago,501 days ago,553 days ago,619 days ago,629 days ago,633 days ago,636 days ago,636 days ago,636 days ago,656 days ago,662 days ago,662 days ago,691 days ago,732 days ago,732 days ago,768 days ago,775 days ago,790 days ago,790 days ago,791 days ago,795 days ago,824 days ago,826 days ago,832 days ago,840 days ago,851 days ago,865 days ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WEB </t>
-  </si>
-  <si>
-    <t>xpath:(//a[@class='ng-scope md-ink-ripple'])[3]</t>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>WIN_10</t>
+  </si>
+  <si>
+    <t>Browser</t>
   </si>
 </sst>
 </file>
@@ -960,11 +972,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1016,7 +1028,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,13 +1057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1052,11 +1065,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1076,21 +1097,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1106,7 +1129,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1114,39 +1157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1185,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,175 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,8 +1408,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1407,7 +1421,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,6 +1456,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1453,15 +1476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,240 +1497,238 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="12" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="23" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="19" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="16" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1730,10 +1742,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1897,21 +1909,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1928,7 +1940,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1981,9 +1993,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1991,11 +2003,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="1" max="1" width="23.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="255" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="16.5" r="3" spans="1:2">
+    <row r="3" ht="16.5" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2081,29 +2093,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.2857142857143" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
+    <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="255" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:2">
+    <row r="2" customFormat="1" spans="1:2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:2">
+    <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:2">
+    <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:2">
+    <row r="5" customFormat="1" spans="1:2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>211</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:2">
+    <row r="6" customFormat="1" spans="1:2">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>229</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:2">
+    <row r="7" customFormat="1" spans="1:2">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -2180,23 +2192,23 @@
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2204,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2220,7 +2232,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2247,20 +2259,20 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:2">
+    <row r="19" ht="15.75" spans="1:2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2268,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2292,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2300,7 +2312,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2329,10 +2341,10 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2340,7 +2352,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2348,7 +2360,7 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2377,7 +2389,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2385,7 +2397,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
@@ -2393,7 +2405,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
         <v>214</v>
@@ -2401,7 +2413,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
         <v>215</v>
@@ -2409,7 +2421,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
         <v>217</v>
@@ -2417,7 +2429,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
         <v>219</v>
@@ -2425,7 +2437,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
         <v>220</v>
@@ -2436,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2444,7 +2456,7 @@
         <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2452,7 +2464,7 @@
         <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2460,7 +2472,7 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2519,15 +2531,15 @@
         <v>253</v>
       </c>
     </row>
-    <row ht="15.75" r="53" spans="1:2">
+    <row r="53" ht="15.75" spans="1:2">
       <c r="A53" t="s">
         <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row ht="15.75" r="54" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:2">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -2567,14 +2579,27 @@
         <v>224</v>
       </c>
     </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2584,15 +2609,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -2600,11 +2625,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.2857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="27.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:2">
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2685,15 +2710,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B9"/>
@@ -2701,11 +2726,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.8571428571429" collapsed="true"/>
+    <col min="1" max="1" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.8571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2778,15 +2803,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2794,15 +2819,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.4285714285714" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.5714285714286" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="10.8571428571429" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.2857142857143" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="10.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3182,7 +3207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="60" r="11" spans="1:12">
+    <row r="11" ht="60" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3220,7 +3245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:12">
+    <row r="12" ht="30" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3296,7 +3321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row ht="30" r="14" spans="1:12">
+    <row r="14" ht="30" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4015,7 +4040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row customHeight="1" ht="37" r="33" spans="1:12">
+    <row r="33" ht="37" customHeight="1" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4129,7 +4154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row customHeight="1" ht="36" r="36" spans="1:12">
+    <row r="36" ht="36" customHeight="1" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4281,7 +4306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="45" r="40" spans="1:12">
+    <row r="40" ht="45" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4319,7 +4344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="30" r="41" spans="1:12">
+    <row r="41" ht="30" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4395,7 +4420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="60" r="43" spans="1:12">
+    <row r="43" ht="60" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4433,7 +4458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row ht="30" r="44" spans="1:12">
+    <row r="44" ht="30" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4928,15 +4953,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -4944,10 +4969,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5028,15 +5053,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -5044,10 +5069,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5120,15 +5145,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -5136,10 +5161,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5220,27 +5245,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5281,15 +5306,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -5297,11 +5322,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.4285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="27.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5309,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:4">
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -5386,7 +5411,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7830" firstSheet="6" activeTab="9"/>
+    <workbookView activeTab="9" firstSheet="6" windowHeight="7830" windowWidth="19935"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01_DasBoardPage" sheetId="1" r:id="rId1"/>
-    <sheet name="TC04_Product Page" sheetId="2" r:id="rId2"/>
-    <sheet name="TC05_Dropdowns" sheetId="3" r:id="rId3"/>
-    <sheet name="Products" sheetId="9" r:id="rId4"/>
-    <sheet name="TC06_Recent Runs" sheetId="4" r:id="rId5"/>
-    <sheet name="TC07_Main Navigation" sheetId="5" r:id="rId6"/>
-    <sheet name="TC08_Views" sheetId="6" r:id="rId7"/>
-    <sheet name="TC09_StepsOfProduct" sheetId="10" r:id="rId8"/>
-    <sheet name="TC10_TestCases" sheetId="11" r:id="rId9"/>
-    <sheet name="REST API TEST RESULT" sheetId="12" r:id="rId10"/>
-    <sheet name="WebServices" sheetId="13" r:id="rId11"/>
+    <sheet name="TC01_DasBoardPage" r:id="rId1" sheetId="1"/>
+    <sheet name="TC04_Product Page" r:id="rId2" sheetId="2"/>
+    <sheet name="TC05_Dropdowns" r:id="rId3" sheetId="3"/>
+    <sheet name="Products" r:id="rId4" sheetId="9"/>
+    <sheet name="TC06_Recent Runs" r:id="rId5" sheetId="4"/>
+    <sheet name="TC07_Main Navigation" r:id="rId6" sheetId="5"/>
+    <sheet name="TC08_Views" r:id="rId7" sheetId="6"/>
+    <sheet name="TC09_StepsOfProduct" r:id="rId8" sheetId="10"/>
+    <sheet name="TC10_TestCases" r:id="rId9" sheetId="11"/>
+    <sheet name="REST API TEST RESULT" r:id="rId10" sheetId="12"/>
+    <sheet name="WebServices" r:id="rId11" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A38:G47"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="308">
   <si>
     <t>Validation Data</t>
   </si>
@@ -1505,230 +1505,230 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="180">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="18" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="24" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="15" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="15" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1742,10 +1742,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1909,21 +1909,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1940,7 +1940,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1993,9 +1993,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2003,11 +2003,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="255" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row ht="16.5" r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2093,15 +2093,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
@@ -2109,13 +2109,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="255" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.2857142857143" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.7142857142857" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:2">
+    <row customFormat="1" r="2" spans="1:2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:2">
+    <row customFormat="1" r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:2">
+    <row customFormat="1" r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:2">
+    <row customFormat="1" r="5" spans="1:2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:2">
+    <row customFormat="1" r="6" spans="1:2">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:2">
+    <row customFormat="1" r="7" spans="1:2">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:2">
+    <row ht="15.75" r="19" spans="1:2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:2">
+    <row ht="15.75" r="53" spans="1:2">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:2">
+    <row ht="15.75" r="54" spans="1:2">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -2593,13 +2593,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2609,15 +2609,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -2625,11 +2625,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:2">
+    <row ht="15.75" r="6" spans="1:2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2710,15 +2710,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B9"/>
@@ -2726,11 +2726,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2803,15 +2803,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -2819,15 +2819,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="27.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="10.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" customWidth="true" width="27.5714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.4285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="10.8571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="60" spans="1:12">
+    <row ht="60" r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:12">
+    <row ht="30" r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:12">
+    <row ht="30" r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="37" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="37" r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" ht="36" customHeight="1" spans="1:12">
+    <row customHeight="1" ht="36" r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" ht="45" spans="1:12">
+    <row ht="45" r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" ht="30" spans="1:12">
+    <row ht="30" r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" ht="60" spans="1:12">
+    <row ht="60" r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" ht="30" spans="1:12">
+    <row ht="30" r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4953,15 +4953,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -4969,10 +4969,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5053,15 +5053,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -5069,10 +5069,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5145,15 +5145,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -5161,10 +5161,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="27.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="27.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5245,27 +5245,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row customFormat="1" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5306,15 +5306,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
@@ -5322,11 +5322,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+    <row customFormat="1" ht="15.75" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row ht="15.75" r="2" spans="1:4">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -5411,7 +5411,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="326">
   <si>
     <t>Validation Data</t>
   </si>
@@ -965,6 +965,60 @@
   </si>
   <si>
     <t>Browser</t>
+  </si>
+  <si>
+    <t>2,10,4,1,1,1,4,0,1,1,6,6,6,4,3,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+  </si>
+  <si>
+    <t>Mar20,2020</t>
+  </si>
+  <si>
+    <t>2 TEST(S)</t>
+  </si>
+  <si>
+    <t>RUN IN - 25 secs</t>
+  </si>
+  <si>
+    <t>rgb(0, 150, 136)</t>
+  </si>
+  <si>
+    <t>PASS - 50%</t>
+  </si>
+  <si>
+    <t>loginTest 7 Sec Pass,registerTest 16 Sec Fail</t>
+  </si>
+  <si>
+    <t>heatclinic_suite</t>
+  </si>
+  <si>
+    <t>6,10,4,5,1,1,4,0,1,1,6,6,6,4,3,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+  </si>
+  <si>
+    <t>2,10,4,25,1,1,4,0,1,1,6,6,6,4,3,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
+  </si>
+  <si>
+    <t>rgb(34, 34, 34)</t>
+  </si>
+  <si>
+    <t>rgb(244, 67, 54)</t>
+  </si>
+  <si>
+    <t>cukesTest 63 Sec Pass,cukesTest 23 Sec Fail,cukesTest 37 Sec Pass,cukesTest 19 Sec Fail,cukesTest 40 Sec Pass,cukesTest 18 Sec Fail</t>
+  </si>
+  <si>
+    <t>Steps - cukesTest</t>
+  </si>
+  <si>
+    <t>cucumber.runtime.CucumberException: java.lang.AssertionError: Verifying element presence at cucumber.api.testng.TestNGCucumberRunner.runCucumber(TestNGCucumberRunner.java:69) at com.atmecs.heatClinic.runner.AbstractCukesTest.cukesTest(AbstractCukesTest.java:33) at sun.reflect.NativeMethodAccessorImpl.invoke0(Native Method) at sun.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62) at sun.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43) at java.lang.reflect.Method.invoke(Method.java:498) at org.testng.internal.MethodInvocationHelper.invokeMethod(MethodInvocationHelper.java:86) at org.testng.internal.Invoker.invokeMethod(Invoker.java:643) at org.testng.internal.Invoker.invokeTestMethod(Invoker.java:820) at org.testng.internal.Invoker.invokeTestMethods(Invoker.java:1128) at org.testng.internal.TestMethodWorker.invokeTestMethods(TestMethodWorker.java:129) at org.testng.internal.TestMethodWorker.run(TestMethodWorker.java:112) at org.testng.TestRunner.privateRun(TestRunner.java:782) at org.testng.TestRunner.run(TestRunner.java:632) at org.testng.SuiteRunner.runTest(SuiteRunner.java:366) at org.testng.SuiteRunner.runSequentially(SuiteRunner.java:361) at org.testng.SuiteRunner.privateRun(SuiteRunner.java:319) at org.testng.SuiteRunner.run(SuiteRunner.java:268) at org.testng.SuiteRunnerWorker.runSuite(SuiteRunnerWorker.java:52) at org.testng.SuiteRunnerWorker.run(SuiteRunnerWorker.java:86) at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1149) at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:624) at java.lang.Thread.run(Thread.java:748) Caused by: java.lang.AssertionError: Verifying element presence at org.testng.Assert.fail(Assert.java:94) at com.atmecs.falcon.automation.verifyresult.VerificationManager.verifyTrueAndStopTest(VerificationManager.java:337) at com.atmecs.heatClinic.pages.LoginPage.getLoginUser(LoginPage.java:114) at com.atmecs.heatClinic.helpers.LoginHelper.verifyLoginUser(LoginHelper.java:78) at com.atmecs.heatClinic.testscript.RegistrationTest.registration_should_be_successful(RegistrationTest.java:69) at ✽.Then registration should be successful(src/main/java/com/atmecs/heatClinic/features/registration.feature:9)</t>
+  </si>
+  <si>
+    <t>Maximize the browser window</t>
+  </si>
+  <si>
+    <t>6 TEST(S)</t>
+  </si>
+  <si>
+    <t>6,10,4,25,1,1,4,0,1,1,6,6,6,4,3,1,1,1,7,9,2,1,8,10,10,1,4,2,1,8,4,2,1,1,1,1,6,2,1,2,2,1,5</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2270,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2272,7 +2326,7 @@
         <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2280,7 +2334,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2312,7 +2366,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2344,7 +2398,7 @@
         <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2352,7 +2406,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2448,7 +2502,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2464,7 +2518,7 @@
         <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2472,7 +2526,7 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2480,7 +2534,7 @@
         <v>240</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2536,7 +2590,7 @@
         <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row ht="15.75" r="54" spans="1:2">
@@ -2560,7 +2614,7 @@
         <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="326">
   <si>
     <t>Validation Data</t>
   </si>

--- a/target/classes/testdata/falcondashboard.xlsx
+++ b/target/classes/testdata/falcondashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="326">
   <si>
     <t>Validation Data</t>
   </si>
